--- a/BS.xlsx
+++ b/BS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="645" windowWidth="14805" windowHeight="7470"/>
+    <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>Дома</t>
   </si>
@@ -143,7 +143,10 @@
     <t>Склад!(+Дом+Фрм)</t>
   </si>
   <si>
-    <t>v1.0113c</t>
+    <t>v1.0114a</t>
+  </si>
+  <si>
+    <t>Дом+Ратуша</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -235,18 +238,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -256,9 +271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,13 +281,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -319,6 +325,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,350 +686,374 @@
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K2" s="31" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="24">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f>(B4*50+1000)*B4</f>
         <v>1050</v>
       </c>
-      <c r="F4" s="11">
-        <f>K4+L4*4</f>
+      <c r="F4" s="13">
+        <f>K4+(L4+M4)*2</f>
         <v>1800</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="e">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="e">
         <f>ROUND(E4/(MAX(B11-B10,B12,B13)*10)/60,1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f>ROUND(F4/SUM($E$9:$E$13)/60,1)</f>
-        <v>-3</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="9">
         <f>Коэфф.!B$10*($D4*($D4-1)*((2*$D4+8)/6+2/$D4)-IF($B4=0,-2,$B4*($B4-1)*((2*$B4+8)/6+2/$B4)))/2</f>
         <v>600</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="22">
         <f>Коэфф.!C$10*($D4*($D4-1)*((2*$D4+8)/6+2/$D4)-IF($B4=0,-2,$B4*($B4-1)*((2*$B4+8)/6+2/$B4)))/2</f>
         <v>300</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="22">
         <f>Коэфф.!D$10*($D4*($D4-1)*((2*$D4+8)/6+2/$D4)-IF($B4=0,-2,$B4*($B4-1)*((2*$B4+8)/6+2/$B4)))/2</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="19"/>
-      <c r="N5" s="29"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K7" s="31" t="s">
+      <c r="O4">
+        <f>Коэфф.!B$10*($B4*$B4+3*$B4+2)/2</f>
+        <v>600</v>
+      </c>
+      <c r="P4">
+        <f>Коэфф.!C$10*($B4*$B4+3*$B4+2)/2</f>
+        <v>300</v>
+      </c>
+      <c r="Q4">
+        <f>Коэфф.!D$10*($B4*$B4+3*$B4+2)/2</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="15"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="O7" s="31" t="s">
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="O7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-    </row>
-    <row r="8" spans="1:17" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+    </row>
+    <row r="8" spans="1:21" s="6" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="26">
+        <v>0</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="24">
         <f>B9+1</f>
         <v>1</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <f>B10*10+B10*B9*2</f>
         <v>10</v>
       </c>
-      <c r="F9" s="17">
-        <f>K9+L9*4+IF(N9&gt;$B$4,O9+P9*4,0)</f>
+      <c r="F9" s="13">
+        <f t="shared" ref="F9:F12" si="0">K9+(L9+M9)*2+O9+(P9+Q9)*2</f>
         <v>1300</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <f>B10*2</f>
         <v>2</v>
       </c>
-      <c r="H9" s="17">
-        <f t="shared" ref="H9:H11" si="0">IF(G9&gt;0,ROUND((F9/(G9*60)),1),9999999)</f>
+      <c r="H9" s="13">
+        <f t="shared" ref="H9:H11" si="1">IF(G9&gt;0,ROUND((F9/(G9*60)),1),9999999)</f>
         <v>10.8</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f>ROUND(F9/SUM($E$9:$E$13)/60,1)</f>
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="K9" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K9" s="22">
         <f>Коэфф.!B$6*($D9*($D9-1)*((2*$D9+8)/6+2/$D9)-IF($B9=0,-2,$B9*($B9-1)*((2*$B9+8)/6+2/$B9)))/2</f>
         <v>500</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="14">
         <f>Коэфф.!C$6*($D9*($D9-1)*((2*$D9+8)/6+2/$D9)-IF($B9=0,-2,$B9*($B9-1)*((2*$B9+8)/6+2/$B9)))/2</f>
         <v>200</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="22">
         <f>Коэфф.!D$6*($D9*($D9-1)*((2*$D9+8)/6+2/$D9)-IF($B9=0,-2,$B9*($B9-1)*((2*$B9+8)/6+2/$B9)))/2</f>
         <v>200</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="13">
         <f>ROUNDUP(SQRT(Коэфф.!C$6*(($D9-1)*($D9-1)+3*($D9-1)+2)/100+100)-10,0)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="22">
         <f>IF($N9&gt;$B$4,Коэфф.!B$10*($N9*($N9-1)*((2*$N9+8)/6+2/$N9)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="22">
         <f>IF($N9&gt;$B$4,Коэфф.!C$10*($N9*($N9-1)*((2*$N9+8)/6+2/$N9)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="22">
         <f>IF($N9&gt;$B$4,Коэфф.!D$10*($N9*($N9-1)*((2*$N9+8)/6+2/$N9)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <f>$D10*($D10-1)*((2*$D10+8)/6+2/$D10)</f>
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <f>IF($B10=0,-2,$B10*($B10-1)*((2*$B10+8)/6+2/$B10))</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>S9-T9</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="26">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="24">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="17">
-        <f t="shared" ref="F10:F13" si="1">K10+L10*4+IF(N10&gt;$B$4,O10+P10*4,0)</f>
+      <c r="E10" s="29"/>
+      <c r="F10" s="13">
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <f>10+B9*2-IF(B11&gt;B10,5,20)</f>
         <v>-10</v>
       </c>
-      <c r="H10" s="17">
-        <f t="shared" si="0"/>
+      <c r="H10" s="13">
+        <f t="shared" si="1"/>
         <v>9999999</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" ref="I10:I13" si="2">ROUND(F10/SUM($E$9:$E$13)/60,1)</f>
-        <v>-3</v>
-      </c>
-      <c r="K10" s="26">
+        <v>3</v>
+      </c>
+      <c r="K10" s="22">
         <f>Коэфф.!B$5*($D10*($D10-1)*((2*$D10+8)/6+2/$D10)-IF($B10=0,-2,$B10*($B10-1)*((2*$B10+8)/6+2/$B10)))/2</f>
         <v>600</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="22">
         <f>Коэфф.!C$5*($D10*($D10-1)*((2*$D10+8)/6+2/$D10)-IF($B10=0,-2,$B10*($B10-1)*((2*$B10+8)/6+2/$B10)))/2</f>
         <v>300</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="22">
         <f>Коэфф.!D$5*($D10*($D10-1)*((2*$D10+8)/6+2/$D10)-IF($B10=0,-2,$B10*($B10-1)*((2*$B10+8)/6+2/$B10)))/2</f>
         <v>300</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="13">
         <f>ROUNDUP(SQRT(Коэфф.!C$5*(($D10-1)*($D10-1)+3*($D10-1)+2)/100+100)-10,0)</f>
         <v>1</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="22">
         <f>IF($N10&gt;$B$4,Коэфф.!B$10*($N10*($N10-1)*((2*$N10+8)/6+2/$N10)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="22">
         <f>IF($N10&gt;$B$4,Коэфф.!C$10*($N10*($N10-1)*((2*$N10+8)/6+2/$N10)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="22">
         <f>IF($N10&gt;$B$4,Коэфф.!D$10*($N10*($N10-1)*((2*$N10+8)/6+2/$N10)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="26">
+        <v>1</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="24">
         <f>B11+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
         <f>(B11-B10)*IF(B11&gt;B10,5,20)</f>
-        <v>-20</v>
-      </c>
-      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="G11" s="13">
+        <f>IF(B11&lt;$B$4,IF(B11&gt;=B10,5,20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
         <f t="shared" si="1"/>
+        <v>9999999</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="K11" s="22">
+        <f>Коэфф.!B$4*($D11*($D11-1)*((2*$D11+8)/6+2/$D11)-IF($B11=0,-2,$B11*($B11-1)*((2*$B11+8)/6+2/$B11)))/2</f>
         <v>300</v>
       </c>
-      <c r="G11" s="17">
-        <f>IF(B11&lt;$B$4,IF(B11&gt;=B10,5,20),0)</f>
-        <v>20</v>
-      </c>
-      <c r="H11" s="17">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.5</v>
-      </c>
-      <c r="K11" s="26">
-        <f>Коэфф.!B$4*($D11*($D11-1)*((2*$D11+8)/6+2/$D11)-IF($B11=0,-2,$B11*($B11-1)*((2*$B11+8)/6+2/$B11)))/2</f>
-        <v>100</v>
-      </c>
-      <c r="L11" s="26">
+      <c r="L11" s="22">
         <f>Коэфф.!C$4*($D11*($D11-1)*((2*$D11+8)/6+2/$D11)-IF($B11=0,-2,$B11*($B11-1)*((2*$B11+8)/6+2/$B11)))/2</f>
-        <v>50</v>
-      </c>
-      <c r="M11" s="26">
+        <v>150</v>
+      </c>
+      <c r="M11" s="22">
         <f>Коэфф.!D$4*($D11*($D11-1)*((2*$D11+8)/6+2/$D11)-IF($B11=0,-2,$B11*($B11-1)*((2*$B11+8)/6+2/$B11)))/2</f>
-        <v>50</v>
-      </c>
-      <c r="N11" s="17">
+        <v>150</v>
+      </c>
+      <c r="N11" s="13">
         <f>ROUNDUP(SQRT(Коэфф.!C$4*(($D11-1)*($D11-1)+3*($D11-1)+2)/100+100)-10,0)</f>
         <v>1</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="22">
         <f>IF($N11&gt;$B$4,Коэфф.!B$10*($N11*($N11-1)*((2*$N11+8)/6+2/$N11)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="22">
         <f>IF($N11&gt;$B$4,Коэфф.!C$10*($N11*($N11-1)*((2*$N11+8)/6+2/$N11)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="22">
         <f>IF($N11&gt;$B$4,Коэфф.!D$10*($N11*($N11-1)*((2*$N11+8)/6+2/$N11)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="26">
+        <v>0</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="24">
         <f>B12+1</f>
         <v>1</v>
       </c>
@@ -1022,8 +1061,8 @@
         <f>B12*20</f>
         <v>0</v>
       </c>
-      <c r="F12" s="17">
-        <f t="shared" si="1"/>
+      <c r="F12" s="13">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="G12" s="1">
@@ -1034,50 +1073,50 @@
         <f>IF(G12&gt;0,ROUND((F12/(G12*60)),1),9999999)</f>
         <v>0.3</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
-      </c>
-      <c r="K12" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="22">
         <f>Коэфф.!B$2*($D12*($D12-1)*((2*$D12+8)/6+2/$D12)-IF($B12=0,-2,$B12*($B12-1)*((2*$B12+8)/6+2/$B12)))/2</f>
         <v>100</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="22">
         <f>Коэфф.!C$2*($D12*($D12-1)*((2*$D12+8)/6+2/$D12)-IF($B12=0,-2,$B12*($B12-1)*((2*$B12+8)/6+2/$B12)))/2</f>
         <v>50</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="22">
         <f>Коэфф.!D$2*($D12*($D12-1)*((2*$D12+8)/6+2/$D12)-IF($B12=0,-2,$B12*($B12-1)*((2*$B12+8)/6+2/$B12)))/2</f>
         <v>50</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="13">
         <f>ROUNDUP(SQRT(Коэфф.!C$2*(($D12-1)*($D12-1)+3*($D12-1)+2)/100+100)-10,0)</f>
         <v>1</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="22">
         <f>IF($N12&gt;$B$4,Коэфф.!B$10*($N12*($N12-1)*((2*$N12+8)/6+2/$N12)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="22">
         <f>IF($N12&gt;$B$4,Коэфф.!C$10*($N12*($N12-1)*((2*$N12+8)/6+2/$N12)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="22">
         <f>IF($N12&gt;$B$4,Коэфф.!D$10*($N12*($N12-1)*((2*$N12+8)/6+2/$N12)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="26">
+        <v>0</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="24">
         <f>B13+1</f>
         <v>1</v>
       </c>
@@ -1085,490 +1124,511 @@
         <f>B13*20</f>
         <v>0</v>
       </c>
-      <c r="F13" s="17">
-        <f t="shared" si="1"/>
+      <c r="F13" s="13">
+        <f>K13+(L13+M13)*2+O13+(P13+Q13)*2</f>
         <v>300</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="13">
         <f>IF(B13&lt;$B$4,20,0)</f>
         <v>20</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="13">
         <f>IF(G13&gt;0,ROUND((F13/(G13*60)),1),9999999)</f>
         <v>0.3</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
-      </c>
-      <c r="K13" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="22">
         <f>Коэфф.!B$3*($D13*($D13-1)*((2*$D13+8)/6+2/$D13)-IF($B13=0,-2,$B13*($B13-1)*((2*$B13+8)/6+2/$B13)))/2</f>
         <v>100</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="22">
         <f>Коэфф.!C$3*($D13*($D13-1)*((2*$D13+8)/6+2/$D13)-IF($B13=0,-2,$B13*($B13-1)*((2*$B13+8)/6+2/$B13)))/2</f>
         <v>50</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="22">
         <f>Коэфф.!D$3*($D13*($D13-1)*((2*$D13+8)/6+2/$D13)-IF($B13=0,-2,$B13*($B13-1)*((2*$B13+8)/6+2/$B13)))/2</f>
         <v>50</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="13">
         <f>ROUNDUP(SQRT(Коэфф.!C$3*(($D13-1)*($D13-1)+3*($D13-1)+2)/100+100)-10,0)</f>
         <v>1</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="22">
         <f>IF($N13&gt;$B$4,Коэфф.!B$10*($N13*($N13-1)*((2*$N13+8)/6+2/$N13)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="22">
         <f>IF($N13&gt;$B$4,Коэфф.!C$10*($N13*($N13-1)*((2*$N13+8)/6+2/$N13)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="22">
         <f>IF($N13&gt;$B$4,Коэфф.!D$10*($N13*($N13-1)*((2*$N13+8)/6+2/$N13)-IF($B$4=0,-2,$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4)))/2,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="17"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="13"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="13">
         <f>F10+F11</f>
-        <v>2100</v>
-      </c>
-      <c r="G16" s="4">
+        <v>2700</v>
+      </c>
+      <c r="G16" s="3">
         <f>10+B9*2-IF(B4&lt;=B11,20,0)</f>
-        <v>10</v>
-      </c>
-      <c r="H16" s="17">
+        <v>-10</v>
+      </c>
+      <c r="H16" s="13">
         <f>IF(G16&gt;0,ROUND((F16/(G16*60)),1),9999999)</f>
-        <v>3.5</v>
-      </c>
-      <c r="I16" s="4">
+        <v>9999999</v>
+      </c>
+      <c r="I16" s="3">
         <f>ROUND(F16/SUM($E$9:$E$13)/60,1)</f>
-        <v>-3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <f>F4+F12+F13</f>
         <v>2400</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f>40</f>
         <v>40</v>
       </c>
-      <c r="H17" s="17">
-        <f t="shared" ref="H17:H19" si="3">ROUND((F17/(G17*60)),1)</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" ref="I17:I19" si="4">ROUND(F17/SUM($E$9:$E$13)/60,1)</f>
-        <v>-4</v>
+      <c r="H17" s="13">
+        <f t="shared" ref="H17:H20" si="3">IF(G17&gt;0,ROUND((F17/(G17*60)),1),9999999)</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" ref="I17:I20" si="4">ROUND(F17/SUM($E$9:$E$13)/60,1)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <f>F4+F11+F12+F13</f>
-        <v>2700</v>
-      </c>
-      <c r="G18" s="4">
+        <v>3300</v>
+      </c>
+      <c r="G18" s="3">
         <f>40+IF((B11+1)&gt;=B10,5,20)</f>
         <v>45</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="13">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I18" s="3">
         <f t="shared" si="4"/>
-        <v>-4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <f>F4+F10+F11</f>
-        <v>3900</v>
-      </c>
-      <c r="G19" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G19" s="3">
         <f>10+B9*2</f>
         <v>10</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="13">
         <f t="shared" si="3"/>
-        <v>6.5</v>
-      </c>
-      <c r="I19" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="I19" s="3">
         <f t="shared" si="4"/>
-        <v>-6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="4"/>
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="3">
+        <f>K10+L10*4+F9</f>
+        <v>3100</v>
+      </c>
+      <c r="G20" s="3">
+        <f>G10+(B10+1)*2</f>
+        <v>-6</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="3"/>
+        <v>9999999</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="4"/>
+        <v>5.2</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="8" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="3" t="s">
+    <row r="26" spans="1:17" s="6" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="13">
         <f>IF(B10&gt;B11,(B10-B11)*10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13">
+        <f>E27*60*6</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <f>IF(E27&gt;0,ROUND(E4/E27/60,1),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="25"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K31" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="O31" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+    </row>
+    <row r="32" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17">
-        <f>E26*60*12</f>
-        <v>7200</v>
-      </c>
-      <c r="H26" s="17">
-        <f>IF(E26&gt;0,ROUND(E4/E26/60,1),0)</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N28" s="29"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K30" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-    </row>
-    <row r="31" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
+      <c r="N32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="28">
+        <v>0</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="24">
+        <f>B33+1</f>
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <f>B33*40</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="13">
+        <f>K33+(L33+M33)*2+O33+(P33+Q33)*2</f>
+        <v>600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>40</v>
+      </c>
+      <c r="H33" s="3">
+        <f>ROUND(F33/G33,0)</f>
+        <v>15</v>
+      </c>
+      <c r="I33" s="3">
+        <f>ROUND(F33/SUM($E$9:$E$13)/60,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="22">
+        <f>Коэфф.!B$7*($D33*($D33-1)*((2*$D33+8)/6+2/$D33)-IF($B33=0,-2,$B33*($B33-1)*((2*$B33+8)/6+2/$B33)))/2</f>
+        <v>200</v>
+      </c>
+      <c r="L33" s="22">
+        <f>Коэфф.!C$7*($D33*($D33-1)*((2*$D33+8)/6+2/$D33)-IF($B33=0,-2,$B33*($B33-1)*((2*$B33+8)/6+2/$B33)))/2</f>
+        <v>100</v>
+      </c>
+      <c r="M33" s="22">
+        <f>Коэфф.!D$7*($D33*($D33-1)*((2*$D33+8)/6+2/$D33)-IF($B33=0,-2,$B33*($B33-1)*((2*$B33+8)/6+2/$B33)))/2</f>
+        <v>100</v>
+      </c>
+      <c r="N33" s="13">
+        <f>ROUNDUP(SQRT(Коэфф.!C$7*(($D33-1)*($D33-1)+3*($D33-1)+2)/100+100)-10,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O33" s="22">
+        <f>IF($N33&gt;$B$4,Коэфф.!B$10*($N33*($N33-1)*((2*$N33+8)/6+2/$N33)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="22">
+        <f>IF($N33&gt;$B$4,Коэфф.!C$10*($N33*($N33-1)*((2*$N33+8)/6+2/$N33)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="22">
+        <f>IF($N33&gt;$B$4,Коэфф.!D$10*($N33*($N33-1)*((2*$N33+8)/6+2/$N33)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="28">
+        <v>0</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="24">
+        <f t="shared" ref="D34:D35" si="5">B34+1</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <f>ROUND(B34*10*(0.2+0.008*B34/2)*5+$E$33*(1+0.0025*B34),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <f>K34+(L34+M34)*2+O34+(P34+Q34)*2</f>
+        <v>10800</v>
+      </c>
+      <c r="G34" s="3">
+        <f>ROUND(10*(0.2+0.008*B34/2)*5+E33*0.0025,0)</f>
+        <v>10</v>
+      </c>
+      <c r="H34" s="3">
+        <f>ROUND(F34/G34,0)</f>
+        <v>1080</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" ref="I34:I35" si="6">ROUND(F34/SUM($E$9:$E$13)/60,1)</f>
         <v>18</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="6">
-        <v>0</v>
-      </c>
-      <c r="C32" s="27" t="s">
+      <c r="J34" s="3"/>
+      <c r="K34" s="22">
+        <f>Коэфф.!B$8*($D34*($D34-1)*((2*$D34+8)/6+2/$D34)-IF($B34=0,-2,$B34*($B34-1)*((2*$B34+8)/6+2/$B34)))/2</f>
+        <v>5000</v>
+      </c>
+      <c r="L34" s="22">
+        <f>Коэфф.!C$8*($D34*($D34-1)*((2*$D34+8)/6+2/$D34)-IF($B34=0,-2,$B34*($B34-1)*((2*$B34+8)/6+2/$B34)))/2</f>
+        <v>500</v>
+      </c>
+      <c r="M34" s="22">
+        <f>Коэфф.!D$8*($D34*($D34-1)*((2*$D34+8)/6+2/$D34)-IF($B34=0,-2,$B34*($B34-1)*((2*$B34+8)/6+2/$B34)))/2</f>
+        <v>1500</v>
+      </c>
+      <c r="N34" s="13">
+        <f>ROUNDUP(SQRT(Коэфф.!D$8*(($D34-1)*($D34-1)+3*($D34-1)+2)/100+100)-10,0)</f>
+        <v>2</v>
+      </c>
+      <c r="O34" s="22">
+        <f>IF($N34&gt;$B$4,Коэфф.!B$10*($N34*($N34-1)*((2*$N34+8)/6+2/$N34)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
+        <v>600</v>
+      </c>
+      <c r="P34" s="22">
+        <f>IF($N34&gt;$B$4,Коэфф.!C$10*($N34*($N34-1)*((2*$N34+8)/6+2/$N34)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
+        <v>300</v>
+      </c>
+      <c r="Q34" s="22">
+        <f>IF($N34&gt;$B$4,Коэфф.!D$10*($N34*($N34-1)*((2*$N34+8)/6+2/$N34)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="28">
+        <v>0</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="28">
-        <f>B32+1</f>
-        <v>1</v>
-      </c>
-      <c r="E32" s="4">
-        <f>B32*40</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="17">
-        <f t="shared" ref="F32" si="5">K32+L32*4+IF(N32&gt;$B$4,O32+P32*4,0)</f>
-        <v>600</v>
-      </c>
-      <c r="G32" s="4">
-        <v>40</v>
-      </c>
-      <c r="H32" s="4">
-        <f>ROUND(F32/G32,0)</f>
-        <v>15</v>
-      </c>
-      <c r="I32" s="4">
-        <f>ROUND(F32/SUM($E$9:$E$13)/60,1)</f>
-        <v>-1</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="26">
-        <f>Коэфф.!B$7*($D32*($D32-1)*((2*$D32+8)/6+2/$D32)-IF($B32=0,-2,$B32*($B32-1)*((2*$B32+8)/6+2/$B32)))/2</f>
-        <v>200</v>
-      </c>
-      <c r="L32" s="26">
-        <f>Коэфф.!C$7*($D32*($D32-1)*((2*$D32+8)/6+2/$D32)-IF($B32=0,-2,$B32*($B32-1)*((2*$B32+8)/6+2/$B32)))/2</f>
-        <v>100</v>
-      </c>
-      <c r="M32" s="26">
-        <f>Коэфф.!D$7*($D32*($D32-1)*((2*$D32+8)/6+2/$D32)-IF($B32=0,-2,$B32*($B32-1)*((2*$B32+8)/6+2/$B32)))/2</f>
-        <v>100</v>
-      </c>
-      <c r="N32" s="17">
-        <f>ROUNDUP(SQRT(Коэфф.!C$7*(($D32-1)*($D32-1)+3*($D32-1)+2)/100+100)-10,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O32" s="26">
-        <f>IF($N32&gt;$B$4,Коэфф.!B$10*($N32*($N32-1)*((2*$N32+8)/6+2/$N32)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="26">
-        <f>IF($N32&gt;$B$4,Коэфф.!C$10*($N32*($N32-1)*((2*$N32+8)/6+2/$N32)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="26">
-        <f>IF($N32&gt;$B$4,Коэфф.!D$10*($N32*($N32-1)*((2*$N32+8)/6+2/$N32)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="6">
-        <v>0</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="28">
-        <f t="shared" ref="D33:D34" si="6">B33+1</f>
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <f>ROUND(B33*10*(0.2+0.008*B33/2)*5+$E$32*(1+0.0025*B33),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <f>K33+(L33+M33)*2+IF(N33&gt;$B$4,O33+(P33+Q33)*2,0)</f>
-        <v>10800</v>
-      </c>
-      <c r="G33" s="4">
-        <f>ROUND(10*(0.2+0.008*B33/2)*5+E32*0.0025,0)</f>
-        <v>10</v>
-      </c>
-      <c r="H33" s="4">
-        <f>ROUND(F33/G33,0)</f>
-        <v>1080</v>
-      </c>
-      <c r="I33" s="4">
-        <f t="shared" ref="I33:I34" si="7">ROUND(F33/SUM($E$9:$E$13)/60,1)</f>
-        <v>-18</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="26">
-        <f>Коэфф.!B$8*($D33*($D33-1)*((2*$D33+8)/6+2/$D33)-IF($B33=0,-2,$B33*($B33-1)*((2*$B33+8)/6+2/$B33)))/2</f>
-        <v>5000</v>
-      </c>
-      <c r="L33" s="26">
-        <f>Коэфф.!C$8*($D33*($D33-1)*((2*$D33+8)/6+2/$D33)-IF($B33=0,-2,$B33*($B33-1)*((2*$B33+8)/6+2/$B33)))/2</f>
-        <v>500</v>
-      </c>
-      <c r="M33" s="26">
-        <f>Коэфф.!D$8*($D33*($D33-1)*((2*$D33+8)/6+2/$D33)-IF($B33=0,-2,$B33*($B33-1)*((2*$B33+8)/6+2/$B33)))/2</f>
-        <v>1500</v>
-      </c>
-      <c r="N33" s="17">
-        <f>ROUNDUP(SQRT(Коэфф.!D$8*(($D33-1)*($D33-1)+3*($D33-1)+2)/100+100)-10,0)</f>
+      <c r="D35" s="24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <f>ROUND(B35*10*(0.2+0.008*B35/2)*5+$E$33*(1+0.0025*B35),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="13">
+        <f>K35+(L35+M35)*2+O35+(P35+Q35)*2</f>
+        <v>10600</v>
+      </c>
+      <c r="G35" s="3">
+        <f>ROUND((2+E33*0.005),0)</f>
         <v>2</v>
       </c>
-      <c r="O33" s="26">
-        <f>IF($N33&gt;$B$4,Коэфф.!B$10*($N33*($N33-1)*((2*$N33+8)/6+2/$N33)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
-        <v>600</v>
-      </c>
-      <c r="P33" s="26">
-        <f>IF($N33&gt;$B$4,Коэфф.!C$10*($N33*($N33-1)*((2*$N33+8)/6+2/$N33)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
+      <c r="H35" s="3">
+        <f>ROUND(F35/G35,0)</f>
+        <v>5300</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="6"/>
+        <v>17.7</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="22">
+        <f>Коэфф.!B$9*($D35*($D35-1)*((2*$D35+8)/6+2/$D35)-IF($B35=0,-2,$B35*($B35-1)*((2*$B35+8)/6+2/$B35)))/2</f>
+        <v>8000</v>
+      </c>
+      <c r="L35" s="22">
+        <f>Коэфф.!C$9*($D35*($D35-1)*((2*$D35+8)/6+2/$D35)-IF($B35=0,-2,$B35*($B35-1)*((2*$B35+8)/6+2/$B35)))/2</f>
+        <v>1000</v>
+      </c>
+      <c r="M35" s="22">
+        <f>Коэфф.!D$9*($D35*($D35-1)*((2*$D35+8)/6+2/$D35)-IF($B35=0,-2,$B35*($B35-1)*((2*$B35+8)/6+2/$B35)))/2</f>
         <v>300</v>
       </c>
-      <c r="Q33" s="26">
-        <f>IF($N33&gt;$B$4,Коэфф.!D$10*($N33*($N33-1)*((2*$N33+8)/6+2/$N33)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="6">
-        <v>0</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="28">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <f>ROUND(B34*10*(0.2+0.008*B34/2)*5+$E$32*(1+0.0025*B34),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="17">
-        <f>K34+(L34+M34)*2+IF(N34&gt;$B$4,O34+(P34+Q34)*2,0)</f>
-        <v>10600</v>
-      </c>
-      <c r="G34" s="4">
-        <f>ROUND((2+E32*0.005),0)</f>
-        <v>2</v>
-      </c>
-      <c r="H34" s="4">
-        <f>ROUND(F34/G34,0)</f>
-        <v>5300</v>
-      </c>
-      <c r="I34" s="4">
-        <f t="shared" si="7"/>
-        <v>-17.7</v>
-      </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="26">
-        <f>Коэфф.!B$9*($D34*($D34-1)*((2*$D34+8)/6+2/$D34)-IF($B34=0,-2,$B34*($B34-1)*((2*$B34+8)/6+2/$B34)))/2</f>
-        <v>8000</v>
-      </c>
-      <c r="L34" s="26">
-        <f>Коэфф.!C$9*($D34*($D34-1)*((2*$D34+8)/6+2/$D34)-IF($B34=0,-2,$B34*($B34-1)*((2*$B34+8)/6+2/$B34)))/2</f>
-        <v>1000</v>
-      </c>
-      <c r="M34" s="26">
-        <f>Коэфф.!D$9*($D34*($D34-1)*((2*$D34+8)/6+2/$D34)-IF($B34=0,-2,$B34*($B34-1)*((2*$B34+8)/6+2/$B34)))/2</f>
-        <v>300</v>
-      </c>
-      <c r="N34" s="17">
-        <f>ROUNDUP(SQRT(Коэфф.!C$9*(($D34-1)*($D34-1)+3*($D34-1)+2)/100+100)-10,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O34" s="26">
-        <f>IF($N34&gt;$B$4,Коэфф.!B$10*($N34*($N34-1)*((2*$N34+8)/6+2/$N34)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="26">
-        <f>IF($N34&gt;$B$4,Коэфф.!C$10*($N34*($N34-1)*((2*$N34+8)/6+2/$N34)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="26">
-        <f>IF($N34&gt;$B$4,Коэфф.!D$10*($N34*($N34-1)*((2*$N34+8)/6+2/$N34)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>19</v>
+      <c r="N35" s="13">
+        <f>ROUNDUP(SQRT(Коэфф.!C$9*(($D35-1)*($D35-1)+3*($D35-1)+2)/100+100)-10,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O35" s="22">
+        <f>IF($N35&gt;$B$4,Коэфф.!B$10*($N35*($N35-1)*((2*$N35+8)/6+2/$N35)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="22">
+        <f>IF($N35&gt;$B$4,Коэфф.!C$10*($N35*($N35-1)*((2*$N35+8)/6+2/$N35)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="22">
+        <f>IF($N35&gt;$B$4,Коэфф.!D$10*($N35*($N35-1)*((2*$N35+8)/6+2/$N35)-$B$4*($B$4-1)*((2*$B$4+8)/6+2/$B$4))/2,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F39" s="15"/>
-    </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F40" s="15"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F41" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K31:M31"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
   </mergeCells>
   <conditionalFormatting sqref="L9:M14">
     <cfRule type="cellIs" dxfId="2" priority="11" operator="greaterThan">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H20">
+  <conditionalFormatting sqref="H9:H21">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -1580,12 +1640,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N32:N34 N9:N13">
+  <conditionalFormatting sqref="N33:N35 N9:N13">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32:M34">
+  <conditionalFormatting sqref="L33:M35">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>$E$4</formula>
     </cfRule>
@@ -1600,7 +1660,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BS.xlsx
+++ b/BS.xlsx
@@ -136,9 +136,6 @@
     <t>Требуемый уровень склада</t>
   </si>
   <si>
-    <t>v1.0203a</t>
-  </si>
-  <si>
     <t>Здание</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>Следующая постройка для апгрейда:</t>
+  </si>
+  <si>
+    <t>v1.0203b</t>
   </si>
 </sst>
 </file>
@@ -364,29 +364,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,9 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -731,32 +729,32 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="28" t="str">
+      <c r="B2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="24" t="str">
         <f>IF(B13=0,"Дома",IF(B7=0,"Склад",IF(B14=0,"Ферма",IF(INDEX(N7:N16,MATCH(INDEX(A7:A18,MATCH(MIN(H7:H18),H7:H18,0)),A7:A16,0))&gt;B7,"Склад",INDEX(A7:A18,MATCH(MIN(H7:H18),H7:H18,0))))))</f>
         <v>Дома</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="8" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="30"/>
+      <c r="G3" s="26"/>
       <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="29"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
@@ -842,16 +840,16 @@
       <c r="N8" s="20"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="O10" s="25" t="s">
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="O10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="1:17" s="6" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -910,7 +908,7 @@
         <f>B12+1</f>
         <v>1</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="30">
         <f>B13*10+B13*B12*2</f>
         <v>0</v>
       </c>
@@ -973,7 +971,7 @@
         <f>B13+1</f>
         <v>1</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="13">
         <f>K13+(L13+M13)*2+O13+(P13+Q13)*2</f>
         <v>1200</v>
@@ -1147,7 +1145,7 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="21">
         <v>0</v>
@@ -1209,12 +1207,12 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="B17" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="13"/>
@@ -1225,13 +1223,13 @@
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),6)</f>
         <v>Склад</v>
       </c>
-      <c r="B18" s="26" t="str">
+      <c r="B18" s="28" t="str">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),1)</f>
         <v>Склад + Лесопилка + Шахта</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="3">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),2)</f>
         <v>2400</v>
@@ -1278,16 +1276,16 @@
       <c r="N23" s="20"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="O25" s="25" t="s">
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="O25" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
     </row>
     <row r="26" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -1546,14 +1544,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O25:Q25"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O25:Q25"/>
   </mergeCells>
   <conditionalFormatting sqref="L12:M16 L27:M29">
     <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
@@ -1741,9 +1739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1757,7 +1753,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -1772,13 +1768,13 @@
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3">
         <f>Расчет!K13+Расчет!L13*4+Расчет!F12</f>
@@ -1797,14 +1793,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F2" s="6" t="str">
-        <f>IF(Расчет!H12=MIN(Расчет!H12,Расчет!H13),"Ратуша","Дома")</f>
-        <v>Ратуша</v>
+        <f>IF(Расчет!H13=MIN(Расчет!H13,Расчет!H12),"Дома","Ратуша")</f>
+        <v>Дома</v>
       </c>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="13">
         <f>Расчет!F13+Расчет!F14</f>
@@ -1823,15 +1819,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F3" t="str">
-        <f>IF(Расчет!H12=MIN(Расчет!H12,Расчет!H14),"Ратуша","Ферма")</f>
-        <v>Ратуша</v>
+        <f>IF(Расчет!H13=MIN(Расчет!H13,Расчет!H14),"Дома","Ферма")</f>
+        <v>Дома</v>
       </c>
       <c r="G3" s="6"/>
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3">
         <f>Расчет!F7+Расчет!F13+Расчет!F14</f>
@@ -1857,7 +1853,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3">
         <f>Расчет!F7+Расчет!F15+Расчет!F16</f>
@@ -1883,7 +1879,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3">
         <f>Расчет!F7+Расчет!F14+Расчет!F15+Расчет!F16</f>
@@ -1945,7 +1941,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N11" s="13"/>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>30</v>
       </c>

--- a/BS.xlsx
+++ b/BS.xlsx
@@ -163,9 +163,6 @@
     <t>Время до апгрейда</t>
   </si>
   <si>
-    <t>v1.0204a</t>
-  </si>
-  <si>
     <t>Время заполнения склада</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Время заполнения</t>
+  </si>
+  <si>
+    <t>v1.0204b</t>
   </si>
 </sst>
 </file>
@@ -432,12 +432,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,9 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,29 +476,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2925,7 +2925,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="F2" s="14"/>
       <c r="K2" s="13" t="str">
-        <f>IF(B19=0,"Дома",IF(B13=0,"Склад",IF(B20=0,"Ферма",IF(INDEX(M14:M22,MATCH(INDEX(A13:A24,MATCH(MIN(K13:K24),K13:K24,0)),A13:A22,0))&gt;B13,"Склад",INDEX(A13:A24,MATCH(MIN(K13:K24),K13:K24,0))))))</f>
+        <f>IF(B19=0,"Дома",IF(B13=0,"Склад",IF(B20=0,"Ферма",IF(INDEX(M13:M22,MATCH(INDEX(A13:A24,MATCH(MIN(K13:K24),K13:K24,0)),A13:A22,0))&gt;B13,"Склад",INDEX(A13:A24,MATCH(MIN(K13:K24),K13:K24,0))))))</f>
         <v>Лесопилка</v>
       </c>
     </row>
@@ -2944,44 +2944,44 @@
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="35" t="s">
+      <c r="M4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="35" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="24">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="31">
+      <c r="C5" s="26"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="29">
         <f>IF(B19&gt;MIN(B20,$B$13),(B19-MIN(B20,$B$13))*10,0)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="29">
         <f>E5*60*B5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="33">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="31">
         <f>IF(E5&gt;0,E13/(E5*60*24),0)</f>
         <v>0</v>
       </c>
@@ -2996,33 +2996,33 @@
     </row>
     <row r="7" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="28" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="32" t="s">
-        <v>52</v>
+      <c r="M7" s="30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="31">
+      <c r="B8" s="27"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="29">
         <f>B18*500000</f>
         <v>0</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="33">
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="31">
         <f>E8/(SUM(E18:E22)*60*24)</f>
         <v>0</v>
       </c>
@@ -3035,94 +3035,94 @@
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="47" t="s">
-        <v>48</v>
+      <c r="M12" s="42" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="38" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="41">
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="35">
         <f>(B13*50+1000)*B13</f>
         <v>1050</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="43">
         <f>IF(B13&lt;B20,IF(B13&lt;B19,20,5),0)+IF(B13&lt;B21,20,0)+IF(B13&lt;B22,20,0)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="35">
         <f>Коэфф.!B$10*($D13*($D13-1)*((2*$D13+8)/6+2/$D13)-IF($B13=0,-2,$B13*($B13-1)*((2*$B13+8)/6+2/$B13)))/2</f>
         <v>600</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="35">
         <f>Коэфф.!C$10*($D13*($D13-1)*((2*$D13+8)/6+2/$D13)-IF($B13=0,-2,$B13*($B13-1)*((2*$B13+8)/6+2/$B13)))/2</f>
         <v>300</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="35">
         <f>Коэфф.!D$10*($D13*($D13-1)*((2*$D13+8)/6+2/$D13)-IF($B13=0,-2,$B13*($B13-1)*((2*$B13+8)/6+2/$B13)))/2</f>
         <v>300</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="36">
         <f>G13+(H13+I13)*2</f>
         <v>1800</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="37">
         <f>IF(F13&gt;0,(J13/(F13*60*24)),9999)</f>
         <v>9999</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="31">
         <f>J13/(SUM($E$18:$E$22)*60*24)</f>
         <v>0.125</v>
       </c>
-      <c r="M13" s="33" t="e">
+      <c r="M13" s="31" t="e">
         <f>E13/((MAX(B20-B19,B21,B22)*10)*60*24)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3132,380 +3132,380 @@
       <c r="M14" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="N16" s="45" t="s">
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="N16" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="35" t="s">
+      <c r="L17" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="34" t="s">
+      <c r="M17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="34" t="s">
+      <c r="O17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="10">
         <v>0</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="39" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="8">
         <f>B18+1</f>
         <v>1</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="51">
         <f>B19*10+B19*B18*2</f>
         <v>10</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="34">
         <f>B19*2</f>
         <v>2</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="35">
         <f>Коэфф.!B$6*($D18*($D18-1)*((2*$D18+8)/6+2/$D18)-IF($B18=0,-2,$B18*($B18-1)*((2*$B18+8)/6+2/$B18)))/2</f>
         <v>500</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="35">
         <f>Коэфф.!C$6*($D18*($D18-1)*((2*$D18+8)/6+2/$D18)-IF($B18=0,-2,$B18*($B18-1)*((2*$B18+8)/6+2/$B18)))/2</f>
         <v>200</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="35">
         <f>Коэфф.!D$6*($D18*($D18-1)*((2*$D18+8)/6+2/$D18)-IF($B18=0,-2,$B18*($B18-1)*((2*$B18+8)/6+2/$B18)))/2</f>
         <v>200</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="36">
         <f>G18+(H18+I18)*2+N18+(O18+P18)*2</f>
         <v>1300</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="37">
         <f>IF(F18&gt;0,(J18/(F18*60*24)),9999)</f>
         <v>0.4513888888888889</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="31">
         <f>J18/(SUM($E$18:$E$22)*60*24)</f>
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$6*(($D18-1)*($D18-1)+3*($D18-1)+2)/100+100)-10,0)</f>
         <v>1</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="35">
         <f>IF($M18&gt;$B$13,Коэфф.!B$10*($M18*($M18-1)*((2*$M18+8)/6+2/$M18)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="38">
+      <c r="O18" s="35">
         <f>IF($M18&gt;$B$13,Коэфф.!C$10*($M18*($M18-1)*((2*$M18+8)/6+2/$M18)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="38">
+      <c r="P18" s="35">
         <f>IF($M18&gt;$B$13,Коэфф.!D$10*($M18*($M18-1)*((2*$M18+8)/6+2/$M18)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="8">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37">
+      <c r="E19" s="51"/>
+      <c r="F19" s="34">
         <f>10+B18*2-IF(B20&gt;B19,5,20)</f>
         <v>-10</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="35">
         <f>Коэфф.!B$5*($D19*($D19-1)*((2*$D19+8)/6+2/$D19)-IF($B19=0,-2,$B19*($B19-1)*((2*$B19+8)/6+2/$B19)))/2</f>
         <v>600</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="35">
         <f>Коэфф.!C$5*($D19*($D19-1)*((2*$D19+8)/6+2/$D19)-IF($B19=0,-2,$B19*($B19-1)*((2*$B19+8)/6+2/$B19)))/2</f>
         <v>300</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="35">
         <f>Коэфф.!D$5*($D19*($D19-1)*((2*$D19+8)/6+2/$D19)-IF($B19=0,-2,$B19*($B19-1)*((2*$B19+8)/6+2/$B19)))/2</f>
         <v>300</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="36">
         <f>G19+(H19+I19)*2+N19+(O19+P19)*2</f>
         <v>1800</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="37">
         <f>IF(F19&gt;0,(J19/(F19*60*24)),9999)</f>
         <v>9999</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="31">
         <f t="shared" ref="L19:L22" si="0">J19/(SUM($E$18:$E$22)*60*24)</f>
         <v>0.125</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$5*(($D19-1)*($D19-1)+3*($D19-1)+2)/100+100)-10,0)</f>
         <v>1</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="35">
         <f>IF($M19&gt;$B$13,Коэфф.!B$10*($M19*($M19-1)*((2*$M19+8)/6+2/$M19)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="35">
         <f>IF($M19&gt;$B$13,Коэфф.!C$10*($M19*($M19-1)*((2*$M19+8)/6+2/$M19)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="38">
+      <c r="P19" s="35">
         <f>IF($M19&gt;$B$13,Коэфф.!D$10*($M19*($M19-1)*((2*$M19+8)/6+2/$M19)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="39" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="8">
         <f>B20+1</f>
         <v>2</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="29">
         <f>(MIN(B20,$B$13)-B19)*IF(MIN(B20,$B$13)&gt;B19,5,20)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="34">
         <f>IF(B20&lt;$B$13,IF(B20&gt;=B19,5,20),0)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="35">
         <f>Коэфф.!B$4*($D20*($D20-1)*((2*$D20+8)/6+2/$D20)-IF($B20=0,-2,$B20*($B20-1)*((2*$B20+8)/6+2/$B20)))/2</f>
         <v>300</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="35">
         <f>Коэфф.!C$4*($D20*($D20-1)*((2*$D20+8)/6+2/$D20)-IF($B20=0,-2,$B20*($B20-1)*((2*$B20+8)/6+2/$B20)))/2</f>
         <v>150</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="35">
         <f>Коэфф.!D$4*($D20*($D20-1)*((2*$D20+8)/6+2/$D20)-IF($B20=0,-2,$B20*($B20-1)*((2*$B20+8)/6+2/$B20)))/2</f>
         <v>150</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="36">
         <f>G20+(H20+I20)*2+N20+(O20+P20)*2</f>
         <v>900</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="37">
         <f>IF(F20&gt;0,(J20/(F20*60*24)),9999)</f>
         <v>9999</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="31">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$4*(($D20-1)*($D20-1)+3*($D20-1)+2)/100+100)-10,0)</f>
         <v>1</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="35">
         <f>IF($M20&gt;$B$13,Коэфф.!B$10*($M20*($M20-1)*((2*$M20+8)/6+2/$M20)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="38">
+      <c r="O20" s="35">
         <f>IF($M20&gt;$B$13,Коэфф.!C$10*($M20*($M20-1)*((2*$M20+8)/6+2/$M20)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="35">
         <f>IF($M20&gt;$B$13,Коэфф.!D$10*($M20*($M20-1)*((2*$M20+8)/6+2/$M20)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="10">
         <v>0</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="39" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="8">
         <f>B21+1</f>
         <v>1</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="29">
         <f>MIN(B21,$B$13)*20</f>
         <v>0</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="34">
         <f>IF(B21&lt;$B$13,20,0)</f>
         <v>20</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="35">
         <f>Коэфф.!B$2*($D21*($D21-1)*((2*$D21+8)/6+2/$D21)-IF($B21=0,-2,$B21*($B21-1)*((2*$B21+8)/6+2/$B21)))/2</f>
         <v>100</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="35">
         <f>Коэфф.!C$2*($D21*($D21-1)*((2*$D21+8)/6+2/$D21)-IF($B21=0,-2,$B21*($B21-1)*((2*$B21+8)/6+2/$B21)))/2</f>
         <v>50</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="35">
         <f>Коэфф.!D$2*($D21*($D21-1)*((2*$D21+8)/6+2/$D21)-IF($B21=0,-2,$B21*($B21-1)*((2*$B21+8)/6+2/$B21)))/2</f>
         <v>50</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="36">
         <f>G21+(H21+I21)*2+N21+(O21+P21)*2</f>
         <v>300</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21" s="37">
         <f>IF(F21&gt;0,(J21/(F21*60*24)),9999)</f>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="31">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$2*(($D21-1)*($D21-1)+3*($D21-1)+2)/100+100)-10,0)</f>
         <v>1</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="35">
         <f>IF($M21&gt;$B$13,Коэфф.!B$10*($M21*($M21-1)*((2*$M21+8)/6+2/$M21)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="38">
+      <c r="O21" s="35">
         <f>IF($M21&gt;$B$13,Коэфф.!C$10*($M21*($M21-1)*((2*$M21+8)/6+2/$M21)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="38">
+      <c r="P21" s="35">
         <f>IF($M21&gt;$B$13,Коэфф.!D$10*($M21*($M21-1)*((2*$M21+8)/6+2/$M21)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="38" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="10">
         <v>0</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="39" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="8">
         <f>B22+1</f>
         <v>1</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="29">
         <f>MIN(B22,$B$13)*20</f>
         <v>0</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="34">
         <f>IF(B22&lt;$B$13,20,0)</f>
         <v>20</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="35">
         <f>Коэфф.!B$3*($D22*($D22-1)*((2*$D22+8)/6+2/$D22)-IF($B22=0,-2,$B22*($B22-1)*((2*$B22+8)/6+2/$B22)))/2</f>
         <v>100</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="35">
         <f>Коэфф.!C$3*($D22*($D22-1)*((2*$D22+8)/6+2/$D22)-IF($B22=0,-2,$B22*($B22-1)*((2*$B22+8)/6+2/$B22)))/2</f>
         <v>50</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="35">
         <f>Коэфф.!D$3*($D22*($D22-1)*((2*$D22+8)/6+2/$D22)-IF($B22=0,-2,$B22*($B22-1)*((2*$B22+8)/6+2/$B22)))/2</f>
         <v>50</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="36">
         <f>G22+(H22+I22)*2+N22+(O22+P22)*2</f>
         <v>300</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="37">
         <f>IF(F22&gt;0,(J22/(F22*60*24)),9999)</f>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="31">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$3*(($D22-1)*($D22-1)+3*($D22-1)+2)/100+100)-10,0)</f>
         <v>1</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="35">
         <f>IF($M22&gt;$B$13,Коэфф.!B$10*($M22*($M22-1)*((2*$M22+8)/6+2/$M22)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="35">
         <f>IF($M22&gt;$B$13,Коэфф.!C$10*($M22*($M22-1)*((2*$M22+8)/6+2/$M22)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="38">
+      <c r="P22" s="35">
         <f>IF($M22&gt;$B$13,Коэфф.!D$10*($M22*($M22-1)*((2*$M22+8)/6+2/$M22)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -3516,13 +3516,13 @@
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),6)</f>
         <v>Склад</v>
       </c>
-      <c r="B24" s="25" t="str">
+      <c r="B24" s="49" t="str">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),1)</f>
         <v>Склад + Лесопилка + Шахта</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="2">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),3)</f>
         <v>40</v>
@@ -3569,245 +3569,245 @@
       <c r="M29" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="N31" s="45" t="s">
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="N31" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="I32" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="43" t="s">
+      <c r="J32" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="34" t="s">
+      <c r="K32" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="35" t="s">
+      <c r="L32" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="M32" s="34" t="s">
+      <c r="M32" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N32" s="34" t="s">
+      <c r="N32" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="O32" s="34" t="s">
+      <c r="O32" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="P32" s="34" t="s">
+      <c r="P32" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="12">
         <v>0</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="39" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="8">
         <f>B33+1</f>
         <v>1</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="43">
         <f>B33*40</f>
         <v>0</v>
       </c>
-      <c r="F33" s="48">
+      <c r="F33" s="43">
         <v>40</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="35">
         <f>Коэфф.!B$7*($D33*($D33-1)*((2*$D33+8)/6+2/$D33)-IF($B33=0,-2,$B33*($B33-1)*((2*$B33+8)/6+2/$B33)))/2</f>
         <v>200</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="35">
         <f>Коэфф.!C$7*($D33*($D33-1)*((2*$D33+8)/6+2/$D33)-IF($B33=0,-2,$B33*($B33-1)*((2*$B33+8)/6+2/$B33)))/2</f>
         <v>100</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="35">
         <f>Коэфф.!D$7*($D33*($D33-1)*((2*$D33+8)/6+2/$D33)-IF($B33=0,-2,$B33*($B33-1)*((2*$B33+8)/6+2/$B33)))/2</f>
         <v>100</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="36">
         <f>G33+(H33+I33)*2+N33+(O33+P33)*2</f>
         <v>600</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="35">
         <f>ROUND(J33/F33,0)</f>
         <v>15</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="31">
         <f t="shared" ref="L33:L35" si="1">J33/(SUM($E$18:$E$22)*60*24)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="M33" s="37">
+      <c r="M33" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$7*(($D33-1)*($D33-1)+3*($D33-1)+2)/100+100)-10,0)</f>
         <v>1</v>
       </c>
-      <c r="N33" s="38">
+      <c r="N33" s="35">
         <f>IF($M33&gt;$B$13,Коэфф.!B$10*($M33*($M33-1)*((2*$M33+8)/6+2/$M33)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="38">
+      <c r="O33" s="35">
         <f>IF($M33&gt;$B$13,Коэфф.!C$10*($M33*($M33-1)*((2*$M33+8)/6+2/$M33)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="P33" s="38">
+      <c r="P33" s="35">
         <f>IF($M33&gt;$B$13,Коэфф.!D$10*($M33*($M33-1)*((2*$M33+8)/6+2/$M33)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="12">
         <v>0</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="39" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="8">
         <f t="shared" ref="D34:D35" si="2">B34+1</f>
         <v>1</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="43">
         <f>ROUND(B34*10*(0.2+0.008*B34/2)*5+$E$33*(1+0.0025*B34),0)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="43">
         <f>ROUND(10*(0.2+0.008*B34/2)*5+E33*0.0025,0)</f>
         <v>10</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="35">
         <f>Коэфф.!B$8*($D34*($D34-1)*((2*$D34+8)/6+2/$D34)-IF($B34=0,-2,$B34*($B34-1)*((2*$B34+8)/6+2/$B34)))/2</f>
         <v>5000</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="35">
         <f>Коэфф.!C$8*($D34*($D34-1)*((2*$D34+8)/6+2/$D34)-IF($B34=0,-2,$B34*($B34-1)*((2*$B34+8)/6+2/$B34)))/2</f>
         <v>500</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="35">
         <f>Коэфф.!D$8*($D34*($D34-1)*((2*$D34+8)/6+2/$D34)-IF($B34=0,-2,$B34*($B34-1)*((2*$B34+8)/6+2/$B34)))/2</f>
         <v>1500</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="36">
         <f>G34+(H34+I34)*2+N34+(O34+P34)*2</f>
         <v>10800</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="35">
         <f>ROUND(J34/F34,0)</f>
         <v>1080</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L34" s="31">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="M34" s="37">
+      <c r="M34" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!D$8*(($D34-1)*($D34-1)+3*($D34-1)+2)/100+100)-10,0)</f>
         <v>2</v>
       </c>
-      <c r="N34" s="38">
+      <c r="N34" s="35">
         <f>IF($M34&gt;$B$13,Коэфф.!B$10*($M34*($M34-1)*((2*$M34+8)/6+2/$M34)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>600</v>
       </c>
-      <c r="O34" s="38">
+      <c r="O34" s="35">
         <f>IF($M34&gt;$B$13,Коэфф.!C$10*($M34*($M34-1)*((2*$M34+8)/6+2/$M34)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>300</v>
       </c>
-      <c r="P34" s="38">
+      <c r="P34" s="35">
         <f>IF($M34&gt;$B$13,Коэфф.!D$10*($M34*($M34-1)*((2*$M34+8)/6+2/$M34)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="12">
         <v>0</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="39" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="43">
         <f>ROUND(B35*10*(0.2+0.008*B35/2)*5+$E$33*(1+0.0025*B35),0)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="48">
+      <c r="F35" s="43">
         <f>ROUND((2+E33*0.005),0)</f>
         <v>2</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="35">
         <f>Коэфф.!B$9*($D35*($D35-1)*((2*$D35+8)/6+2/$D35)-IF($B35=0,-2,$B35*($B35-1)*((2*$B35+8)/6+2/$B35)))/2</f>
         <v>8000</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="35">
         <f>Коэфф.!C$9*($D35*($D35-1)*((2*$D35+8)/6+2/$D35)-IF($B35=0,-2,$B35*($B35-1)*((2*$B35+8)/6+2/$B35)))/2</f>
         <v>1000</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="35">
         <f>Коэфф.!D$9*($D35*($D35-1)*((2*$D35+8)/6+2/$D35)-IF($B35=0,-2,$B35*($B35-1)*((2*$B35+8)/6+2/$B35)))/2</f>
         <v>300</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="36">
         <f>G35+(H35+I35)*2+N35+(O35+P35)*2</f>
         <v>10600</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="35">
         <f>ROUND(J35/F35,0)</f>
         <v>5300</v>
       </c>
-      <c r="L35" s="33">
+      <c r="L35" s="31">
         <f t="shared" si="1"/>
         <v>0.73611111111111116</v>
       </c>
-      <c r="M35" s="37">
+      <c r="M35" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$9*(($D35-1)*($D35-1)+3*($D35-1)+2)/100+100)-10,0)</f>
         <v>1</v>
       </c>
-      <c r="N35" s="38">
+      <c r="N35" s="35">
         <f>IF($M35&gt;$B$13,Коэфф.!B$10*($M35*($M35-1)*((2*$M35+8)/6+2/$M35)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="38">
+      <c r="O35" s="35">
         <f>IF($M35&gt;$B$13,Коэфф.!C$10*($M35*($M35-1)*((2*$M35+8)/6+2/$M35)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
-      <c r="P35" s="38">
+      <c r="P35" s="35">
         <f>IF($M35&gt;$B$13,Коэфф.!D$10*($M35*($M35-1)*((2*$M35+8)/6+2/$M35)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
         <v>0</v>
       </c>
@@ -3835,14 +3835,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="N31:P31"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="H18:I22 H33:I35">
     <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">

--- a/BS.xlsx
+++ b/BS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="885" windowWidth="14805" windowHeight="7230"/>
+    <workbookView xWindow="60" yWindow="90" windowWidth="14415" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет" sheetId="2" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>Окупаемость апгрейда в часах</t>
   </si>
   <si>
-    <t>1. Доход по лесопилкам/шахтам с учетом закупочной цены 200 золота за 100 ресурсов</t>
-  </si>
-  <si>
     <t>Время до апгрейда в часах</t>
   </si>
   <si>
@@ -178,7 +175,10 @@
     <t>Время заполнения</t>
   </si>
   <si>
-    <t>v1.0204b</t>
+    <t>1. Доход по лесопилкам/шахтам с учетом закупочной цены 200 золота за 100 ресурсов и продажной цены 50 золота за 100 ресурсов в случае перепроизводства</t>
+  </si>
+  <si>
+    <t>v1.0221a</t>
   </si>
 </sst>
 </file>
@@ -494,20 +494,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2930,12 +2930,12 @@
     </row>
     <row r="2" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="14"/>
       <c r="K2" s="13" t="str">
         <f>IF(B19=0,"Дома",IF(B13=0,"Склад",IF(B20=0,"Ферма",IF(INDEX(M13:M22,MATCH(INDEX(A13:A24,MATCH(MIN(K13:K24),K13:K24,0)),A13:A22,0))&gt;B13,"Склад",INDEX(A13:A24,MATCH(MIN(K13:K24),K13:K24,0))))))</f>
-        <v>Лесопилка</v>
+        <v>Склад</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2945,22 +2945,22 @@
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="33" t="s">
         <v>49</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="24">
         <v>6</v>
@@ -2997,11 +2997,11 @@
     <row r="7" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
       <c r="E7" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3013,7 +3013,7 @@
       <c r="D8" s="25"/>
       <c r="E8" s="29">
         <f>B18*500000</f>
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -3024,7 +3024,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="31">
         <f>E8/(SUM(E18:E22)*60*24)</f>
-        <v>0</v>
+        <v>6.6773504273504276</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3035,12 +3035,12 @@
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G11" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="G11" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="45" t="s">
@@ -3049,10 +3049,10 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>8</v>
@@ -3064,27 +3064,27 @@
         <v>10</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="M12" s="42" t="s">
         <v>46</v>
-      </c>
-      <c r="M12" s="42" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="41">
         <f>B13+1</f>
@@ -3120,11 +3120,11 @@
       </c>
       <c r="L13" s="31">
         <f>J13/(SUM($E$18:$E$22)*60*24)</f>
-        <v>0.125</v>
-      </c>
-      <c r="M13" s="31" t="e">
+        <v>2.403846153846154E-2</v>
+      </c>
+      <c r="M13" s="31">
         <f>E13/((MAX(B20-B19,B21,B22)*10)*60*24)</f>
-        <v>#DIV/0!</v>
+        <v>7.2916666666666671E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3132,17 +3132,17 @@
       <c r="M14" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="N16" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
+      <c r="G16" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="N16" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="44" t="s">
@@ -3154,7 +3154,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="32" t="s">
         <v>8</v>
@@ -3166,16 +3166,16 @@
         <v>10</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="33" t="s">
-        <v>46</v>
-      </c>
       <c r="M17" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N17" s="32" t="s">
         <v>8</v>
@@ -3192,18 +3192,18 @@
         <v>1</v>
       </c>
       <c r="B18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="8">
         <f>B18+1</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="51">
+        <v>2</v>
+      </c>
+      <c r="E18" s="49">
         <f>B19*10+B19*B18*2</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F18" s="34">
         <f>B19*2</f>
@@ -3211,27 +3211,27 @@
       </c>
       <c r="G18" s="35">
         <f>Коэфф.!B$6*($D18*($D18-1)*((2*$D18+8)/6+2/$D18)-IF($B18=0,-2,$B18*($B18-1)*((2*$B18+8)/6+2/$B18)))/2</f>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="H18" s="35">
         <f>Коэфф.!C$6*($D18*($D18-1)*((2*$D18+8)/6+2/$D18)-IF($B18=0,-2,$B18*($B18-1)*((2*$B18+8)/6+2/$B18)))/2</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="I18" s="35">
         <f>Коэфф.!D$6*($D18*($D18-1)*((2*$D18+8)/6+2/$D18)-IF($B18=0,-2,$B18*($B18-1)*((2*$B18+8)/6+2/$B18)))/2</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J18" s="36">
         <f>G18+(H18+I18)*2+N18+(O18+P18)*2</f>
-        <v>1300</v>
+        <v>3900</v>
       </c>
       <c r="K18" s="37">
         <f>IF(F18&gt;0,(J18/(F18*60*24)),9999)</f>
-        <v>0.4513888888888889</v>
+        <v>1.3541666666666667</v>
       </c>
       <c r="L18" s="31">
         <f>J18/(SUM($E$18:$E$22)*60*24)</f>
-        <v>9.0277777777777776E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="M18" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$6*(($D18-1)*($D18-1)+3*($D18-1)+2)/100+100)-10,0)</f>
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="8">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="34">
         <f>10+B18*2-IF(B20&gt;B19,5,20)</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G19" s="35">
         <f>Коэфф.!B$5*($D19*($D19-1)*((2*$D19+8)/6+2/$D19)-IF($B19=0,-2,$B19*($B19-1)*((2*$B19+8)/6+2/$B19)))/2</f>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="L19" s="31">
         <f t="shared" ref="L19:L22" si="0">J19/(SUM($E$18:$E$22)*60*24)</f>
-        <v>0.125</v>
+        <v>2.403846153846154E-2</v>
       </c>
       <c r="M19" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$5*(($D19-1)*($D19-1)+3*($D19-1)+2)/100+100)-10,0)</f>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="8">
         <f>B20+1</f>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="L20" s="31">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>1.201923076923077E-2</v>
       </c>
       <c r="M20" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$4*(($D20-1)*($D20-1)+3*($D20-1)+2)/100+100)-10,0)</f>
@@ -3378,46 +3378,46 @@
         <v>3</v>
       </c>
       <c r="B21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="8">
         <f>B21+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="29">
         <f>MIN(B21,$B$13)*20</f>
+        <v>20</v>
+      </c>
+      <c r="F21" s="34">
+        <f>IF(B21&lt;$B$13,IF($E$18/D21&lt;20,5,20),0)</f>
         <v>0</v>
-      </c>
-      <c r="F21" s="34">
-        <f>IF(B21&lt;$B$13,20,0)</f>
-        <v>20</v>
       </c>
       <c r="G21" s="35">
         <f>Коэфф.!B$2*($D21*($D21-1)*((2*$D21+8)/6+2/$D21)-IF($B21=0,-2,$B21*($B21-1)*((2*$B21+8)/6+2/$B21)))/2</f>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H21" s="35">
         <f>Коэфф.!C$2*($D21*($D21-1)*((2*$D21+8)/6+2/$D21)-IF($B21=0,-2,$B21*($B21-1)*((2*$B21+8)/6+2/$B21)))/2</f>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I21" s="35">
         <f>Коэфф.!D$2*($D21*($D21-1)*((2*$D21+8)/6+2/$D21)-IF($B21=0,-2,$B21*($B21-1)*((2*$B21+8)/6+2/$B21)))/2</f>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J21" s="36">
         <f>G21+(H21+I21)*2+N21+(O21+P21)*2</f>
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K21" s="37">
         <f>IF(F21&gt;0,(J21/(F21*60*24)),9999)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>9999</v>
       </c>
       <c r="L21" s="31">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>1.201923076923077E-2</v>
       </c>
       <c r="M21" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$2*(($D21-1)*($D21-1)+3*($D21-1)+2)/100+100)-10,0)</f>
@@ -3438,49 +3438,49 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="8">
         <f>B22+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="29">
         <f>MIN(B22,$B$13)*20</f>
+        <v>20</v>
+      </c>
+      <c r="F22" s="34">
+        <f>IF(B22&lt;$B$13,IF($E$18/D22&lt;20,5,20),0)</f>
         <v>0</v>
-      </c>
-      <c r="F22" s="34">
-        <f>IF(B22&lt;$B$13,20,0)</f>
-        <v>20</v>
       </c>
       <c r="G22" s="35">
         <f>Коэфф.!B$3*($D22*($D22-1)*((2*$D22+8)/6+2/$D22)-IF($B22=0,-2,$B22*($B22-1)*((2*$B22+8)/6+2/$B22)))/2</f>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H22" s="35">
         <f>Коэфф.!C$3*($D22*($D22-1)*((2*$D22+8)/6+2/$D22)-IF($B22=0,-2,$B22*($B22-1)*((2*$B22+8)/6+2/$B22)))/2</f>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I22" s="35">
         <f>Коэфф.!D$3*($D22*($D22-1)*((2*$D22+8)/6+2/$D22)-IF($B22=0,-2,$B22*($B22-1)*((2*$B22+8)/6+2/$B22)))/2</f>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J22" s="36">
         <f>G22+(H22+I22)*2+N22+(O22+P22)*2</f>
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K22" s="37">
         <f>IF(F22&gt;0,(J22/(F22*60*24)),9999)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>9999</v>
       </c>
       <c r="L22" s="31">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>1.201923076923077E-2</v>
       </c>
       <c r="M22" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$3*(($D22-1)*($D22-1)+3*($D22-1)+2)/100+100)-10,0)</f>
@@ -3500,12 +3500,12 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
+      <c r="B23" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -3516,28 +3516,28 @@
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),6)</f>
         <v>Склад</v>
       </c>
-      <c r="B24" s="49" t="str">
+      <c r="B24" s="47" t="str">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),1)</f>
-        <v>Склад + Лесопилка + Шахта</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
+        <v>Склад + Дома + Ферма</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="2">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),3)</f>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="J24" s="22">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),2)</f>
-        <v>2400</v>
+        <v>4500</v>
       </c>
       <c r="K24" s="23">
         <f>IF(F24&gt;0,(J24/(F24*60*24)),9999)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="L24" s="18">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),5)</f>
-        <v>0.16666666666666666</v>
+        <v>6.0096153846153848E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -3552,34 +3552,34 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M29" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G31" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="N31" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
+      <c r="G31" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="N31" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="44" t="s">
@@ -3588,10 +3588,10 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G32" s="34" t="s">
         <v>8</v>
@@ -3603,16 +3603,16 @@
         <v>10</v>
       </c>
       <c r="J32" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L32" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M32" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N32" s="32" t="s">
         <v>8</v>
@@ -3626,13 +3626,13 @@
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="12">
         <v>0</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="8">
         <f>B33+1</f>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="L33" s="31">
         <f t="shared" ref="L33:L35" si="1">J33/(SUM($E$18:$E$22)*60*24)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>8.0128205128205121E-3</v>
       </c>
       <c r="M33" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$7*(($D33-1)*($D33-1)+3*($D33-1)+2)/100+100)-10,0)</f>
@@ -3688,13 +3688,13 @@
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="12">
         <v>0</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="8">
         <f t="shared" ref="D34:D35" si="2">B34+1</f>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="L34" s="31">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.14423076923076922</v>
       </c>
       <c r="M34" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!D$8*(($D34-1)*($D34-1)+3*($D34-1)+2)/100+100)-10,0)</f>
@@ -3751,13 +3751,13 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="12">
         <v>0</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" si="2"/>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="L35" s="31">
         <f t="shared" si="1"/>
-        <v>0.73611111111111116</v>
+        <v>0.14155982905982906</v>
       </c>
       <c r="M35" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$9*(($D35-1)*($D35-1)+3*($D35-1)+2)/100+100)-10,0)</f>
@@ -3814,17 +3814,17 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -3835,14 +3835,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N31:P31"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N31:P31"/>
   </mergeCells>
   <conditionalFormatting sqref="H18:I22 H33:I35">
     <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
@@ -3969,7 +3969,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>5000</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>8000</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -4034,7 +4034,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4050,36 +4050,36 @@
   <sheetData>
     <row r="1" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="19">
         <f>Расчет!G19+Расчет!H19*4+Расчет!J18</f>
-        <v>3100</v>
+        <v>5700</v>
       </c>
       <c r="C2" s="19">
         <f>Расчет!F19+(Расчет!B19+1)*2</f>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D2" s="17">
         <f>IF(C2&gt;0,(B2/(C2*60*24)),9999)</f>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E2" s="18">
         <f>B2/(SUM(Расчет!$E$18:$E$22)*60*24)</f>
-        <v>0.21527777777777779</v>
+        <v>7.6121794871794865E-2</v>
       </c>
       <c r="F2" s="3" t="str">
         <f>IF(Расчет!K19=MIN(Расчет!K19,Расчет!K18),"Дома","Ратуша")</f>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="20">
         <f>Расчет!J19+Расчет!J20</f>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="C3" s="19">
         <f>10+Расчет!B18*2-IF(Расчет!B13&lt;=Расчет!B20,20,0)</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="D3" s="17">
         <f t="shared" ref="D3:D6" si="0">IF(C3&gt;0,(B3/(C3*60*24)),9999)</f>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="E3" s="18">
         <f>B3/(SUM(Расчет!$E$18:$E$22)*60*24)</f>
-        <v>0.1875</v>
+        <v>3.6057692307692304E-2</v>
       </c>
       <c r="F3" t="str">
         <f>IF(Расчет!K19=MIN(Расчет!K19,Расчет!K20),"Дома","Ферма")</f>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="19">
         <f>Расчет!J13+Расчет!J19+Расчет!J20</f>
@@ -4132,70 +4132,70 @@
       </c>
       <c r="C4" s="19">
         <f>10+Расчет!B18*2</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="17">
         <f t="shared" si="0"/>
-        <v>0.3125</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="E4" s="18">
         <f>B4/(SUM(Расчет!$E$18:$E$22)*60*24)</f>
-        <v>0.3125</v>
+        <v>6.0096153846153848E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3"/>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="19">
         <f>Расчет!J13+Расчет!J21+Расчет!J22</f>
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="C5" s="19">
-        <f>40</f>
-        <v>40</v>
+        <f>Расчет!F21+Расчет!F22</f>
+        <v>0</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>9999</v>
       </c>
       <c r="E5" s="18">
         <f>B5/(SUM(Расчет!$E$18:$E$22)*60*24)</f>
-        <v>0.16666666666666666</v>
+        <v>4.807692307692308E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="19">
         <f>Расчет!J13+Расчет!J20+Расчет!J21+Расчет!J22</f>
-        <v>3300</v>
+        <v>4500</v>
       </c>
       <c r="C6" s="19">
-        <f>40+IF((Расчет!B20+1)&gt;=Расчет!B19,5,20)</f>
-        <v>45</v>
+        <f>C5+IF((Расчет!B20+1)&gt;=Расчет!B19,5,20)</f>
+        <v>5</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" si="0"/>
-        <v>5.0925925925925923E-2</v>
+        <v>0.625</v>
       </c>
       <c r="E6" s="18">
         <f>B6/(SUM(Расчет!$E$18:$E$22)*60*24)</f>
-        <v>0.22916666666666666</v>
+        <v>6.0096153846153848E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3"/>
       <c r="J6" s="6"/>

--- a/BS.xlsx
+++ b/BS.xlsx
@@ -103,9 +103,6 @@
     <t>Вместимость</t>
   </si>
   <si>
-    <t>2. Эквивалент армии для требушетов выбран равным армии со стенами того же уровня</t>
-  </si>
-  <si>
     <t>3. Приведенная стоимость апгрейда с учетом необходимости апгрейда складов</t>
   </si>
   <si>
@@ -178,7 +175,10 @@
     <t>1. Доход по лесопилкам/шахтам с учетом закупочной цены 200 золота за 100 ресурсов и продажной цены 50 золота за 100 ресурсов в случае перепроизводства</t>
   </si>
   <si>
-    <t>v1.0221a</t>
+    <t>v1.0323a</t>
+  </si>
+  <si>
+    <t>2. Эквивалент армии для требушетов указан при атаке, без учета действия стены обороняющейся стороны</t>
   </si>
 </sst>
 </file>
@@ -494,6 +494,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,12 +508,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2925,12 +2925,12 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="14"/>
       <c r="K2" s="13" t="str">
@@ -2945,22 +2945,22 @@
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="33" t="s">
         <v>48</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="24">
         <v>6</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3035,12 +3035,12 @@
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="45" t="s">
@@ -3067,13 +3067,13 @@
         <v>20</v>
       </c>
       <c r="K12" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="M12" s="42" t="s">
         <v>45</v>
-      </c>
-      <c r="M12" s="42" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3084,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="41">
         <f>B13+1</f>
@@ -3132,17 +3132,17 @@
       <c r="M14" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="N16" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="N16" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="44" t="s">
@@ -3169,13 +3169,13 @@
         <v>20</v>
       </c>
       <c r="K17" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="33" t="s">
-        <v>45</v>
-      </c>
       <c r="M17" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N17" s="32" t="s">
         <v>8</v>
@@ -3195,13 +3195,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="8">
         <f>B18+1</f>
         <v>2</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="51">
         <f>B19*10+B19*B18*2</f>
         <v>12</v>
       </c>
@@ -3258,13 +3258,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="8">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="E19" s="49"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="34">
         <f>10+B18*2-IF(B20&gt;B19,5,20)</f>
         <v>-8</v>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="8">
         <f>B20+1</f>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="8">
         <f>B21+1</f>
@@ -3438,13 +3438,13 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="10">
         <v>1</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="8">
         <f>B22+1</f>
@@ -3500,12 +3500,12 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+      <c r="B23" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -3516,13 +3516,13 @@
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),6)</f>
         <v>Склад</v>
       </c>
-      <c r="B24" s="47" t="str">
+      <c r="B24" s="49" t="str">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),1)</f>
         <v>Склад + Дома + Ферма</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="2">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),3)</f>
         <v>12</v>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -3562,24 +3562,24 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M29" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="N31" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="N31" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="44" t="s">
@@ -3609,10 +3609,10 @@
         <v>19</v>
       </c>
       <c r="L32" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M32" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N32" s="32" t="s">
         <v>8</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="8">
         <f>B33+1</f>
@@ -3694,59 +3694,59 @@
         <v>0</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" ref="D34:D35" si="2">B34+1</f>
-        <v>1</v>
+        <f>B34+2</f>
+        <v>2</v>
       </c>
       <c r="E34" s="43">
-        <f>ROUND(B34*10*(0.2+0.008*B34/2)*5+$E$33*(1+0.0025*B34),0)</f>
+        <f>ROUND($B34*10*(0.2+FLOOR($B34/2,1)/(2*(100+FLOOR($B34/2,1))))*5+$E$33*(1+FLOOR($B34/2,1)/(2*(100+FLOOR($B34/2,1)))),0)</f>
         <v>0</v>
       </c>
       <c r="F34" s="43">
-        <f>ROUND(10*(0.2+0.008*B34/2)*5+E33*0.0025,0)</f>
-        <v>10</v>
+        <f>ROUND($D34*10*(0.2+FLOOR($D34/2,1)/(2*(100+FLOOR($D34/2,1))))*5+$E$33*(1+FLOOR($D34/2,1)/(2*(100+FLOOR($D34/2,1)))),0)-E34</f>
+        <v>20</v>
       </c>
       <c r="G34" s="35">
         <f>Коэфф.!B$8*($D34*($D34-1)*((2*$D34+8)/6+2/$D34)-IF($B34=0,-2,$B34*($B34-1)*((2*$B34+8)/6+2/$B34)))/2</f>
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="H34" s="35">
         <f>Коэфф.!C$8*($D34*($D34-1)*((2*$D34+8)/6+2/$D34)-IF($B34=0,-2,$B34*($B34-1)*((2*$B34+8)/6+2/$B34)))/2</f>
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I34" s="35">
         <f>Коэфф.!D$8*($D34*($D34-1)*((2*$D34+8)/6+2/$D34)-IF($B34=0,-2,$B34*($B34-1)*((2*$B34+8)/6+2/$B34)))/2</f>
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="J34" s="36">
         <f>G34+(H34+I34)*2+N34+(O34+P34)*2</f>
-        <v>10800</v>
+        <v>47400</v>
       </c>
       <c r="K34" s="35">
         <f>ROUND(J34/F34,0)</f>
-        <v>1080</v>
+        <v>2370</v>
       </c>
       <c r="L34" s="31">
         <f t="shared" si="1"/>
-        <v>0.14423076923076922</v>
+        <v>0.63301282051282048</v>
       </c>
       <c r="M34" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!D$8*(($D34-1)*($D34-1)+3*($D34-1)+2)/100+100)-10,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N34" s="35">
         <f>IF($M34&gt;$B$13,Коэфф.!B$10*($M34*($M34-1)*((2*$M34+8)/6+2/$M34)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
-        <v>600</v>
+        <v>3800</v>
       </c>
       <c r="O34" s="35">
         <f>IF($M34&gt;$B$13,Коэфф.!C$10*($M34*($M34-1)*((2*$M34+8)/6+2/$M34)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="P34" s="35">
         <f>IF($M34&gt;$B$13,Коэфф.!D$10*($M34*($M34-1)*((2*$M34+8)/6+2/$M34)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
-        <v>300</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3757,59 +3757,59 @@
         <v>0</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>B35+2</f>
+        <v>2</v>
       </c>
       <c r="E35" s="43">
-        <f>ROUND(B35*10*(0.2+0.008*B35/2)*5+$E$33*(1+0.0025*B35),0)</f>
+        <f>ROUND($E$33*(1+FLOOR($B35/2,1)/(2*(100+FLOOR($B35/2,1)))),0)</f>
         <v>0</v>
       </c>
       <c r="F35" s="43">
-        <f>ROUND((2+E33*0.005),0)</f>
-        <v>2</v>
+        <f>ROUND($E$33*(1+FLOOR($D35/2,1)/(2*(100+FLOOR($D35/2,1)))),0)-E35</f>
+        <v>0</v>
       </c>
       <c r="G35" s="35">
         <f>Коэфф.!B$9*($D35*($D35-1)*((2*$D35+8)/6+2/$D35)-IF($B35=0,-2,$B35*($B35-1)*((2*$B35+8)/6+2/$B35)))/2</f>
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="H35" s="35">
         <f>Коэфф.!C$9*($D35*($D35-1)*((2*$D35+8)/6+2/$D35)-IF($B35=0,-2,$B35*($B35-1)*((2*$B35+8)/6+2/$B35)))/2</f>
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I35" s="35">
         <f>Коэфф.!D$9*($D35*($D35-1)*((2*$D35+8)/6+2/$D35)-IF($B35=0,-2,$B35*($B35-1)*((2*$B35+8)/6+2/$B35)))/2</f>
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="J35" s="36">
         <f>G35+(H35+I35)*2+N35+(O35+P35)*2</f>
-        <v>10600</v>
-      </c>
-      <c r="K35" s="35">
+        <v>47800</v>
+      </c>
+      <c r="K35" s="35" t="e">
         <f>ROUND(J35/F35,0)</f>
-        <v>5300</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L35" s="31">
         <f t="shared" si="1"/>
-        <v>0.14155982905982906</v>
+        <v>0.63835470085470081</v>
       </c>
       <c r="M35" s="34">
         <f>ROUNDUP(SQRT(Коэфф.!C$9*(($D35-1)*($D35-1)+3*($D35-1)+2)/100+100)-10,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35" s="35">
         <f>IF($M35&gt;$B$13,Коэфф.!B$10*($M35*($M35-1)*((2*$M35+8)/6+2/$M35)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="O35" s="35">
         <f>IF($M35&gt;$B$13,Коэфф.!C$10*($M35*($M35-1)*((2*$M35+8)/6+2/$M35)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="P35" s="35">
         <f>IF($M35&gt;$B$13,Коэфф.!D$10*($M35*($M35-1)*((2*$M35+8)/6+2/$M35)-IF($B$13=0,-2,$B$13*($B$13-1)*((2*$B$13+8)/6+2/$B$13)))/2,0)</f>
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -3819,12 +3819,12 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -3835,14 +3835,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N31:P31"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N31:P31"/>
   </mergeCells>
   <conditionalFormatting sqref="H18:I22 H33:I35">
     <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
@@ -4050,7 +4050,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -4065,13 +4065,13 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="19">
         <f>Расчет!G19+Расчет!H19*4+Расчет!J18</f>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="20">
         <f>Расчет!J19+Расчет!J20</f>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="19">
         <f>Расчет!J13+Расчет!J19+Расчет!J20</f>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="19">
         <f>Расчет!J13+Расчет!J21+Расчет!J22</f>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="19">
         <f>Расчет!J13+Расчет!J20+Расчет!J21+Расчет!J22</f>

--- a/BS.xlsx
+++ b/BS.xlsx
@@ -175,10 +175,10 @@
     <t>1. Доход по лесопилкам/шахтам с учетом закупочной цены 200 золота за 100 ресурсов и продажной цены 50 золота за 100 ресурсов в случае перепроизводства</t>
   </si>
   <si>
-    <t>v1.0323a</t>
-  </si>
-  <si>
     <t>2. Эквивалент армии для требушетов указан при атаке, без учета действия стены обороняющейся стороны</t>
+  </si>
+  <si>
+    <t>v1.0323b</t>
   </si>
 </sst>
 </file>
@@ -494,20 +494,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2925,7 +2925,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3035,12 +3035,12 @@
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="45" t="s">
@@ -3132,17 +3132,17 @@
       <c r="M14" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="N16" s="47" t="s">
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="N16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="44" t="s">
@@ -3201,7 +3201,7 @@
         <f>B18+1</f>
         <v>2</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="49">
         <f>B19*10+B19*B18*2</f>
         <v>12</v>
       </c>
@@ -3264,7 +3264,7 @@
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="34">
         <f>10+B18*2-IF(B20&gt;B19,5,20)</f>
         <v>-8</v>
@@ -3500,12 +3500,12 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -3516,13 +3516,13 @@
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),6)</f>
         <v>Склад</v>
       </c>
-      <c r="B24" s="49" t="str">
+      <c r="B24" s="47" t="str">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),1)</f>
         <v>Склад + Дома + Ферма</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="2">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),3)</f>
         <v>12</v>
@@ -3569,17 +3569,17 @@
       <c r="M29" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="N31" s="47" t="s">
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="N31" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="44" t="s">
@@ -3643,6 +3643,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="43">
+        <f>(D33-B33)*40</f>
         <v>40</v>
       </c>
       <c r="G33" s="35">
@@ -3819,7 +3820,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -3835,14 +3836,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N31:P31"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N31:P31"/>
   </mergeCells>
   <conditionalFormatting sqref="H18:I22 H33:I35">
     <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">

--- a/BS.xlsx
+++ b/BS.xlsx
@@ -178,7 +178,7 @@
     <t>2. Эквивалент армии для требушетов указан при атаке, без учета действия стены обороняющейся стороны</t>
   </si>
   <si>
-    <t>v1.0323b</t>
+    <t>v1.0323c</t>
   </si>
 </sst>
 </file>
@@ -494,6 +494,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,9 +505,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3035,12 +3035,12 @@
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="45" t="s">
@@ -3138,11 +3138,11 @@
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
       <c r="J16" s="51"/>
-      <c r="N16" s="50" t="s">
+      <c r="N16" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="44" t="s">
@@ -3201,7 +3201,7 @@
         <f>B18+1</f>
         <v>2</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="50">
         <f>B19*10+B19*B18*2</f>
         <v>12</v>
       </c>
@@ -3264,7 +3264,7 @@
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="E19" s="49"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="34">
         <f>10+B18*2-IF(B20&gt;B19,5,20)</f>
         <v>-8</v>
@@ -3500,12 +3500,12 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -3516,13 +3516,13 @@
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),6)</f>
         <v>Склад</v>
       </c>
-      <c r="B24" s="47" t="str">
+      <c r="B24" s="48" t="str">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),1)</f>
         <v>Склад + Дома + Ферма</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="2">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),3)</f>
         <v>12</v>
@@ -3569,17 +3569,17 @@
       <c r="M29" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="N31" s="50" t="s">
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="N31" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="44" t="s">
@@ -3702,12 +3702,12 @@
         <v>2</v>
       </c>
       <c r="E34" s="43">
-        <f>ROUND($B34*10*(0.2+FLOOR($B34/2,1)/(2*(100+FLOOR($B34/2,1))))*5+$E$33*(1+FLOOR($B34/2,1)/(2*(100+FLOOR($B34/2,1)))),0)</f>
+        <f>ROUND($B34*10*((40+1.2*ROUNDDOWN($B34/2,0))/(100+ROUNDDOWN($B34/2,0)))*5+$E$33*((100+1.5*ROUNDDOWN($B34/2,0))/(100+ROUNDDOWN($B34/2,0))),0)</f>
         <v>0</v>
       </c>
       <c r="F34" s="43">
-        <f>ROUND($D34*10*(0.2+FLOOR($D34/2,1)/(2*(100+FLOOR($D34/2,1))))*5+$E$33*(1+FLOOR($D34/2,1)/(2*(100+FLOOR($D34/2,1)))),0)-E34</f>
-        <v>20</v>
+        <f>ROUND($D34*10*((40+1.2*ROUNDDOWN($D34/2,0))/(100+ROUNDDOWN($D34/2,0)))*5+$E$33*((100+1.5*ROUNDDOWN($D34/2,0))/(100+ROUNDDOWN($D34/2,0))),0)-E34</f>
+        <v>41</v>
       </c>
       <c r="G34" s="35">
         <f>Коэфф.!B$8*($D34*($D34-1)*((2*$D34+8)/6+2/$D34)-IF($B34=0,-2,$B34*($B34-1)*((2*$B34+8)/6+2/$B34)))/2</f>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="K34" s="35">
         <f>ROUND(J34/F34,0)</f>
-        <v>2370</v>
+        <v>1156</v>
       </c>
       <c r="L34" s="31">
         <f t="shared" si="1"/>
@@ -3765,11 +3765,11 @@
         <v>2</v>
       </c>
       <c r="E35" s="43">
-        <f>ROUND($E$33*(1+FLOOR($B35/2,1)/(2*(100+FLOOR($B35/2,1)))),0)</f>
+        <f>ROUND($E$33*((100+1.5*ROUNDDOWN($B35/2,0))/(100+ROUNDDOWN($B35/2,0))),0)</f>
         <v>0</v>
       </c>
       <c r="F35" s="43">
-        <f>ROUND($E$33*(1+FLOOR($D35/2,1)/(2*(100+FLOOR($D35/2,1)))),0)-E35</f>
+        <f>ROUND($E$33*((100+1.5*ROUNDDOWN($D35/2,0))/(100+ROUNDDOWN($D35/2,0))),0)-E35</f>
         <v>0</v>
       </c>
       <c r="G35" s="35">
@@ -3836,14 +3836,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G16:J16"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="N31:P31"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="H18:I22 H33:I35">
     <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">

--- a/BS.xlsx
+++ b/BS.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="90" windowWidth="14415" windowHeight="12495"/>
+    <workbookView xWindow="60" yWindow="210" windowWidth="14415" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет" sheetId="2" r:id="rId1"/>
-    <sheet name="Коэфф." sheetId="3" r:id="rId2"/>
-    <sheet name="Advanced" sheetId="4" r:id="rId3"/>
+    <sheet name="Война" sheetId="5" r:id="rId2"/>
+    <sheet name="Коэфф." sheetId="3" r:id="rId3"/>
+    <sheet name="Advanced" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="test">Расчет!$A$13,Расчет!$K$13,Расчет!$A$18,Расчет!$K$18,Расчет!$A$19,Расчет!$K$19,Расчет!$A$20,Расчет!$K$20,Расчет!$A$21,Расчет!$K$21,Расчет!$A$22,Расчет!$K$22</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
   <si>
     <t>Дома</t>
   </si>
@@ -178,7 +179,43 @@
     <t>2. Эквивалент армии для требушетов указан при атаке, без учета действия стены обороняющейся стороны</t>
   </si>
   <si>
-    <t>v1.0323c</t>
+    <t>Инженеры</t>
+  </si>
+  <si>
+    <t>Атака</t>
+  </si>
+  <si>
+    <t>Оборона</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>Бонус</t>
+  </si>
+  <si>
+    <t>Лучники</t>
+  </si>
+  <si>
+    <t>Прочность</t>
+  </si>
+  <si>
+    <t>Атака требушета</t>
+  </si>
+  <si>
+    <t>Прочность стены</t>
+  </si>
+  <si>
+    <t>Раунд</t>
+  </si>
+  <si>
+    <t>ИТОГ</t>
+  </si>
+  <si>
+    <t>Армия</t>
+  </si>
+  <si>
+    <t>v1.0324a</t>
   </si>
 </sst>
 </file>
@@ -189,7 +226,7 @@
     <numFmt numFmtId="164" formatCode="[h]&quot;ч&quot;\ m&quot;мин&quot;"/>
     <numFmt numFmtId="165" formatCode="[=9999]&quot;∞&quot;;[h]&quot;ч&quot;\ m&quot;мин&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +273,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +310,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,16 +566,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -542,6 +640,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="I1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="N1" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2617,6 +2723,133 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Восстановление инженеров</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2053" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Восстановление лучников</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -2905,7 +3138,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2915,17 +3148,18 @@
     <col min="3" max="3" width="5.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="9" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.140625" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" style="6" customWidth="1"/>
     <col min="14" max="16" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2963,7 +3197,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="25"/>
@@ -3035,12 +3269,12 @@
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="45" t="s">
@@ -3132,17 +3366,17 @@
       <c r="M14" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="N16" s="47" t="s">
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="N16" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="44" t="s">
@@ -3201,7 +3435,7 @@
         <f>B18+1</f>
         <v>2</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="58">
         <f>B19*10+B19*B18*2</f>
         <v>12</v>
       </c>
@@ -3264,7 +3498,7 @@
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="E19" s="50"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="34">
         <f>10+B18*2-IF(B20&gt;B19,5,20)</f>
         <v>-8</v>
@@ -3290,7 +3524,7 @@
         <v>9999</v>
       </c>
       <c r="L19" s="31">
-        <f t="shared" ref="L19:L22" si="0">J19/(SUM($E$18:$E$22)*60*24)</f>
+        <f>J19/(SUM($E$18:$E$22)*60*24)</f>
         <v>2.403846153846154E-2</v>
       </c>
       <c r="M19" s="34">
@@ -3353,7 +3587,7 @@
         <v>9999</v>
       </c>
       <c r="L20" s="31">
-        <f t="shared" si="0"/>
+        <f>J20/(SUM($E$18:$E$22)*60*24)</f>
         <v>1.201923076923077E-2</v>
       </c>
       <c r="M20" s="34">
@@ -3416,7 +3650,7 @@
         <v>9999</v>
       </c>
       <c r="L21" s="31">
-        <f t="shared" si="0"/>
+        <f>J21/(SUM($E$18:$E$22)*60*24)</f>
         <v>1.201923076923077E-2</v>
       </c>
       <c r="M21" s="34">
@@ -3479,7 +3713,7 @@
         <v>9999</v>
       </c>
       <c r="L22" s="31">
-        <f t="shared" si="0"/>
+        <f>J22/(SUM($E$18:$E$22)*60*24)</f>
         <v>1.201923076923077E-2</v>
       </c>
       <c r="M22" s="34">
@@ -3500,12 +3734,12 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -3516,13 +3750,13 @@
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),6)</f>
         <v>Склад</v>
       </c>
-      <c r="B24" s="48" t="str">
+      <c r="B24" s="56" t="str">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),1)</f>
         <v>Склад + Дома + Ферма</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
       <c r="F24" s="2">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),3)</f>
         <v>12</v>
@@ -3569,17 +3803,17 @@
       <c r="M29" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="N31" s="47" t="s">
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="N31" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="44" t="s">
@@ -3643,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="43">
-        <f>(D33-B33)*40</f>
+        <f>($D$33-$B$33)*40</f>
         <v>40</v>
       </c>
       <c r="G33" s="35">
@@ -3663,11 +3897,11 @@
         <v>600</v>
       </c>
       <c r="K33" s="35">
-        <f>ROUND(J33/F33,0)</f>
+        <f>ROUND(J33/(F33*(D33-B33)),0)</f>
         <v>15</v>
       </c>
       <c r="L33" s="31">
-        <f t="shared" ref="L33:L35" si="1">J33/(SUM($E$18:$E$22)*60*24)</f>
+        <f>J33/(SUM($E$18:$E$22)*60*24)</f>
         <v>8.0128205128205121E-3</v>
       </c>
       <c r="M33" s="34">
@@ -3705,7 +3939,7 @@
         <f>ROUND($B34*10*((40+1.2*ROUNDDOWN($B34/2,0))/(100+ROUNDDOWN($B34/2,0)))*5+$E$33*((100+1.5*ROUNDDOWN($B34/2,0))/(100+ROUNDDOWN($B34/2,0))),0)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="47">
         <f>ROUND($D34*10*((40+1.2*ROUNDDOWN($D34/2,0))/(100+ROUNDDOWN($D34/2,0)))*5+$E$33*((100+1.5*ROUNDDOWN($D34/2,0))/(100+ROUNDDOWN($D34/2,0))),0)-E34</f>
         <v>41</v>
       </c>
@@ -3730,7 +3964,7 @@
         <v>1156</v>
       </c>
       <c r="L34" s="31">
-        <f t="shared" si="1"/>
+        <f>J34/(SUM($E$18:$E$22)*60*24)</f>
         <v>0.63301282051282048</v>
       </c>
       <c r="M34" s="34">
@@ -3764,11 +3998,11 @@
         <f>B35+2</f>
         <v>2</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="47">
         <f>ROUND($E$33*((100+1.5*ROUNDDOWN($B35/2,0))/(100+ROUNDDOWN($B35/2,0))),0)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="47">
         <f>ROUND($E$33*((100+1.5*ROUNDDOWN($D35/2,0))/(100+ROUNDDOWN($D35/2,0))),0)-E35</f>
         <v>0</v>
       </c>
@@ -3793,7 +4027,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="31">
-        <f t="shared" si="1"/>
+        <f>J35/(SUM($E$18:$E$22)*60*24)</f>
         <v>0.63835470085470081</v>
       </c>
       <c r="M35" s="34">
@@ -3834,16 +4068,19 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J41" s="5"/>
     </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F43" s="48"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="N31:P31"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="H18:I22 H33:I35">
     <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
@@ -3874,6 +4111,440 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" customWidth="1"/>
+    <col min="8" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="16" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="N1" s="53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="H2" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+    </row>
+    <row r="3" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51">
+        <v>0</v>
+      </c>
+      <c r="B4" s="51">
+        <v>0</v>
+      </c>
+      <c r="D4" s="51">
+        <v>0</v>
+      </c>
+      <c r="E4" s="51">
+        <v>0</v>
+      </c>
+      <c r="G4" s="49">
+        <v>1</v>
+      </c>
+      <c r="H4" s="49">
+        <f>$B$6</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="49">
+        <f>$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="49">
+        <f>IF($B$7&gt;0,ROUND($B$8*I4/$B$7,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="49">
+        <f>IF($H4&gt;$M4,ROUNDDOWN(($H4-$M4)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J4/$B$8,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49">
+        <f>$E$6</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="49">
+        <f>$E$7</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="49">
+        <f>$E$8</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="49">
+        <f>IF($M4&gt;$H4,ROUNDDOWN(($M4-$H4)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*O4/$E$8,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G5" s="49">
+        <v>2</v>
+      </c>
+      <c r="H5" s="49">
+        <f>ROUND(MAX(ROUND(H4-N4*(P4+20)/(P4+80),0)-M4*(50+P4)/(100+P4),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="49">
+        <f>MAX(IF(I$1,I4,I4-1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="50">
+        <f t="shared" ref="J5:J8" si="0">IF($B$7&gt;0,ROUND($B$8*I5/$B$7,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="50">
+        <f t="shared" ref="K5:K8" si="1">IF($H5&gt;$M5,ROUNDDOWN(($H5-$M5)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J5/$B$8,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49">
+        <f>ROUND(MAX(M4-ROUND(H4-N4*(P4+20)/80,0)*(50+K4)/(100+K4),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="49">
+        <f>MAX(IF(N$1,N4,ROUND(N4-J4/20,0)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="49">
+        <f>MAX(ROUND(O4-J4*0.5,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="50">
+        <f t="shared" ref="P5:P8" si="2">IF($M5&gt;$H5,ROUNDDOWN(($M5-$H5)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*O5/$E$8,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <f>$A$4*40</f>
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <f>$D$4*40</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="49">
+        <v>3</v>
+      </c>
+      <c r="H6" s="49">
+        <f t="shared" ref="H6:H9" si="3">ROUND(MAX(ROUND(H5-N5*(P5+20)/(P5+80),0)-M5*(50+P5)/(100+P5),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="50">
+        <f t="shared" ref="I6:I9" si="4">MAX(IF(I$1,I5,I5-1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49">
+        <f t="shared" ref="M6:M9" si="5">ROUND(MAX(M5-ROUND(H5-N5*(P5+20)/80,0)*(50+K5)/(100+K5),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="50">
+        <f t="shared" ref="N6:N9" si="6">MAX(IF(N$1,N5,ROUND(N5-J5/20,0)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="50">
+        <f t="shared" ref="O6:O9" si="7">MAX(ROUND(O5-J5*0.5,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <f>IF($B$4=0,0,ROUNDDOWN(1+$B$4/5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <f>$E$4*10</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="49">
+        <v>4</v>
+      </c>
+      <c r="H7" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <f>$B$4*20</f>
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <f>$E$4*100</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="49">
+        <v>5</v>
+      </c>
+      <c r="H8" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G9" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:P2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2052" r:id="rId4" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>533400</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2053" r:id="rId5" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>647700</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:D10"/>
@@ -4029,7 +4700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:N9"/>
@@ -4109,7 +4780,7 @@
         <v>-8</v>
       </c>
       <c r="D3" s="17">
-        <f t="shared" ref="D3:D6" si="0">IF(C3&gt;0,(B3/(C3*60*24)),9999)</f>
+        <f>IF(C3&gt;0,(B3/(C3*60*24)),9999)</f>
         <v>9999</v>
       </c>
       <c r="E3" s="18">
@@ -4136,7 +4807,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(C4&gt;0,(B4/(C4*60*24)),9999)</f>
         <v>0.26041666666666669</v>
       </c>
       <c r="E4" s="18">
@@ -4162,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(C5&gt;0,(B5/(C5*60*24)),9999)</f>
         <v>9999</v>
       </c>
       <c r="E5" s="18">
@@ -4188,7 +4859,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(C6&gt;0,(B6/(C6*60*24)),9999)</f>
         <v>0.625</v>
       </c>
       <c r="E6" s="18">

--- a/BS.xlsx
+++ b/BS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="210" windowWidth="14415" windowHeight="12375"/>
+    <workbookView xWindow="2580" yWindow="-30" windowWidth="14415" windowHeight="11715"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>Дома</t>
   </si>
@@ -215,7 +215,25 @@
     <t>Армия</t>
   </si>
   <si>
-    <t>v1.0324a</t>
+    <t>Армия атаки</t>
+  </si>
+  <si>
+    <t>Бонус атаки</t>
+  </si>
+  <si>
+    <t>Бонус обороны</t>
+  </si>
+  <si>
+    <t>Оставшиеся бонусы</t>
+  </si>
+  <si>
+    <t>1. Лучники</t>
+  </si>
+  <si>
+    <t>3. требушеты</t>
+  </si>
+  <si>
+    <t>v1.0327a</t>
   </si>
 </sst>
 </file>
@@ -433,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -580,21 +598,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,6 +627,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3159,7 +3183,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3269,12 +3293,12 @@
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="45" t="s">
@@ -3366,17 +3390,17 @@
       <c r="M14" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="N16" s="54" t="s">
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="N16" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="44" t="s">
@@ -3495,7 +3519,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="8">
-        <f>B19+1</f>
+        <f t="shared" ref="D19:D22" si="0">B19+1</f>
         <v>2</v>
       </c>
       <c r="E19" s="58"/>
@@ -3555,7 +3579,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="8">
-        <f>B20+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E20" s="29">
@@ -3618,7 +3642,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8">
-        <f>B21+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E21" s="29">
@@ -3681,7 +3705,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="8">
-        <f>B22+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E22" s="29">
@@ -3803,17 +3827,17 @@
       <c r="M29" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G31" s="54" t="s">
+      <c r="G31" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="N31" s="54" t="s">
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="N31" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="44" t="s">
@@ -4073,14 +4097,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="E18:E19"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="N31:P31"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="H18:I22 H33:I35">
     <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
@@ -4113,9 +4137,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4126,45 +4152,56 @@
     <col min="8" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="12" width="5.28515625" customWidth="1"/>
     <col min="13" max="16" width="10.42578125" customWidth="1"/>
+    <col min="18" max="20" width="14" style="3" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="53" t="b">
         <v>1</v>
       </c>
       <c r="N1" s="53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="R1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="H2" s="61" t="s">
+      <c r="E2" s="61"/>
+      <c r="H2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
       <c r="L2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-    </row>
-    <row r="3" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="S2" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="64"/>
+    </row>
+    <row r="3" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>14</v>
       </c>
@@ -4206,8 +4243,17 @@
       <c r="P3" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51">
         <v>0</v>
       </c>
@@ -4257,12 +4303,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G5" s="49">
         <v>2</v>
       </c>
       <c r="H5" s="49">
-        <f>ROUND(MAX(ROUND(H4-N4*(P4+20)/(P4+80),0)-M4*(50+P4)/(100+P4),0),0)</f>
+        <f>ROUND($R5-MIN($R5,$M4)*($T5+50)/($S5+$T5+100),0)</f>
         <v>0</v>
       </c>
       <c r="I5" s="49">
@@ -4279,7 +4325,7 @@
       </c>
       <c r="L5" s="49"/>
       <c r="M5" s="49">
-        <f>ROUND(MAX(M4-ROUND(H4-N4*(P4+20)/80,0)*(50+K4)/(100+K4),0),0)</f>
+        <f>ROUND($M4-MIN($R5,$M4)*($S5+50)/($S5+$T5+100),0)</f>
         <v>0</v>
       </c>
       <c r="N5" s="49">
@@ -4294,8 +4340,20 @@
         <f t="shared" ref="P5:P8" si="2">IF($M5&gt;$H5,ROUNDDOWN(($M5-$H5)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*O5/$E$8,0),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5" s="3">
+        <f>ROUND($H4-MIN($N4,$H4)*($P4+20)/($P4+80),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <f>IF($R5&gt;$M4,ROUNDDOWN((R5-$M4)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J4/$B$8,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <f>IF($M4&gt;$R5,ROUNDDOWN(($M4-$R5)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*$O5/$E$8,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -4313,12 +4371,12 @@
       <c r="G6" s="49">
         <v>3</v>
       </c>
-      <c r="H6" s="49">
-        <f t="shared" ref="H6:H9" si="3">ROUND(MAX(ROUND(H5-N5*(P5+20)/(P5+80),0)-M5*(50+P5)/(100+P5),0),0)</f>
+      <c r="H6" s="54">
+        <f>ROUND($R6-MIN($R6,$M5)*($T6+50)/($S6+$T6+100),0)</f>
         <v>0</v>
       </c>
       <c r="I6" s="50">
-        <f t="shared" ref="I6:I9" si="4">MAX(IF(I$1,I5,I5-1),0)</f>
+        <f t="shared" ref="I6:I9" si="3">MAX(IF(I$1,I5,I5-1),0)</f>
         <v>0</v>
       </c>
       <c r="J6" s="50">
@@ -4330,24 +4388,36 @@
         <v>0</v>
       </c>
       <c r="L6" s="49"/>
-      <c r="M6" s="49">
-        <f t="shared" ref="M6:M9" si="5">ROUND(MAX(M5-ROUND(H5-N5*(P5+20)/80,0)*(50+K5)/(100+K5),0),0)</f>
+      <c r="M6" s="54">
+        <f>ROUND($M5-MIN($R6,$M5)*($S6+50)/($S6+$T6+100),0)</f>
         <v>0</v>
       </c>
       <c r="N6" s="50">
-        <f t="shared" ref="N6:N9" si="6">MAX(IF(N$1,N5,ROUND(N5-J5/20,0)),0)</f>
+        <f t="shared" ref="N6:N9" si="4">MAX(IF(N$1,N5,ROUND(N5-J5/20,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O6" s="50">
-        <f t="shared" ref="O6:O9" si="7">MAX(ROUND(O5-J5*0.5,0),0)</f>
+        <f t="shared" ref="O6:O9" si="5">MAX(ROUND(O5-J5*0.5,0),0)</f>
         <v>0</v>
       </c>
       <c r="P6" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6" s="3">
+        <f t="shared" ref="R6:R9" si="6">ROUND($H5-MIN($N5,$H5)*($P5+20)/($P5+80),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <f>IF(R6&gt;$M5,ROUNDDOWN((R6-$M5)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J5/$B$8,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" ref="T6:T9" si="7">IF($M5&gt;$R6,ROUNDDOWN(($M5-$R6)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*$O6/$E$8,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -4365,12 +4435,12 @@
       <c r="G7" s="49">
         <v>4</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="54">
+        <f>ROUND($R7-MIN($R7,$M6)*($T7+50)/($S7+$T7+100),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="50">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J7" s="50">
@@ -4382,24 +4452,36 @@
         <v>0</v>
       </c>
       <c r="L7" s="49"/>
-      <c r="M7" s="49">
+      <c r="M7" s="54">
+        <f>ROUND($M6-MIN($R7,$M6)*($S7+50)/($S7+$T7+100),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="50">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="50">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P7" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <f>IF(R7&gt;$M6,ROUNDDOWN((R7-$M6)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J6/$B$8,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -4417,12 +4499,12 @@
       <c r="G8" s="49">
         <v>5</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="54">
+        <f>ROUND($R8-MIN($R8,$M7)*($T8+50)/($S8+$T8+100),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="50">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J8" s="50">
@@ -4434,58 +4516,83 @@
         <v>0</v>
       </c>
       <c r="L8" s="49"/>
-      <c r="M8" s="49">
+      <c r="M8" s="54">
+        <f>ROUND($M7-MIN($R8,$M7)*($S8+50)/($S8+$T8+100),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="50">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="50">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P8" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <f>IF(R8&gt;$M7,ROUNDDOWN((R8-$M7)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J7/$B$8,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G9" s="49" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="52">
+        <f>ROUND($R9-MIN($R9,$M8)*($T9+50)/($S9+$T9+100),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="52">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="52">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="52">
+        <f>ROUND($M8-MIN($R9,$M8)*($S9+50)/($S9+$T9+100),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="52">
+      <c r="P9" s="49"/>
+      <c r="R9" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O9" s="52">
+      <c r="S9" s="3">
+        <f>IF(R9&gt;$M8,ROUNDDOWN((R9-$M8)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J8/$B$8,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P9" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:P2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BS.xlsx
+++ b/BS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="-30" windowWidth="14415" windowHeight="11715"/>
+    <workbookView xWindow="2580" yWindow="210" windowWidth="14415" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>Дома</t>
   </si>
@@ -233,7 +233,7 @@
     <t>3. требушеты</t>
   </si>
   <si>
-    <t>v1.0327a</t>
+    <t>v1.0412a</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -598,6 +598,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3293,12 +3296,12 @@
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="45" t="s">
@@ -3390,17 +3393,17 @@
       <c r="M14" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="N16" s="55" t="s">
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="N16" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="44" t="s">
@@ -3459,7 +3462,7 @@
         <f>B18+1</f>
         <v>2</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="59">
         <f>B19*10+B19*B18*2</f>
         <v>12</v>
       </c>
@@ -3519,10 +3522,10 @@
         <v>30</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" ref="D19:D22" si="0">B19+1</f>
+        <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="E19" s="58"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="34">
         <f>10+B18*2-IF(B20&gt;B19,5,20)</f>
         <v>-8</v>
@@ -3579,7 +3582,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="0"/>
+        <f>B20+1</f>
         <v>2</v>
       </c>
       <c r="E20" s="29">
@@ -3642,7 +3645,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="0"/>
+        <f>B21+1</f>
         <v>2</v>
       </c>
       <c r="E21" s="29">
@@ -3705,7 +3708,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="0"/>
+        <f>B22+1</f>
         <v>2</v>
       </c>
       <c r="E22" s="29">
@@ -3758,12 +3761,12 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
@@ -3774,13 +3777,13 @@
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),6)</f>
         <v>Склад</v>
       </c>
-      <c r="B24" s="56" t="str">
+      <c r="B24" s="57" t="str">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),1)</f>
         <v>Склад + Дома + Ферма</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="2">
         <f>INDEX(Advanced!A2:F6,MATCH(MIN(Advanced!D2:D6),Advanced!D2:D6,0),3)</f>
         <v>12</v>
@@ -3827,17 +3830,17 @@
       <c r="M29" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="N31" s="55" t="s">
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="N31" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="44" t="s">
@@ -3921,7 +3924,7 @@
         <v>600</v>
       </c>
       <c r="K33" s="35">
-        <f>ROUND(J33/(F33*(D33-B33)),0)</f>
+        <f>ROUND(J33/F33,0)</f>
         <v>15</v>
       </c>
       <c r="L33" s="31">
@@ -4023,11 +4026,11 @@
         <v>2</v>
       </c>
       <c r="E35" s="47">
-        <f>ROUND($E$33*((100+1.5*ROUNDDOWN($B35/2,0))/(100+ROUNDDOWN($B35/2,0))),0)</f>
+        <f>ROUND($E$33*(2*(50+ROUNDDOWN($B35/2,0))/(100+ROUNDDOWN($B35/2,0))),0)</f>
         <v>0</v>
       </c>
       <c r="F35" s="47">
-        <f>ROUND($E$33*((100+1.5*ROUNDDOWN($D35/2,0))/(100+ROUNDDOWN($D35/2,0))),0)-E35</f>
+        <f>ROUND($E$33*(2*(50+ROUNDDOWN($D35/2,0))/(100+ROUNDDOWN($D35/2,0))),0)-E35</f>
         <v>0</v>
       </c>
       <c r="G35" s="35">
@@ -4136,11 +4139,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:T9"/>
+  <sheetPr codeName="Лист11"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4152,10 +4155,10 @@
     <col min="8" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="12" width="5.28515625" customWidth="1"/>
     <col min="13" max="16" width="10.42578125" customWidth="1"/>
-    <col min="18" max="20" width="14" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="21" width="14" style="3" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="53" t="b">
         <v>1</v>
       </c>
@@ -4165,43 +4168,43 @@
       <c r="R1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="H2" s="62" t="s">
+      <c r="E2" s="62"/>
+      <c r="H2" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
       <c r="L2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="S2" s="64" t="s">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="T2" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="64"/>
-    </row>
-    <row r="3" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="65"/>
+    </row>
+    <row r="3" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>14</v>
       </c>
@@ -4247,21 +4250,24 @@
         <v>64</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B4" s="51">
         <v>0</v>
       </c>
       <c r="D4" s="51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4" s="51">
         <v>0</v>
@@ -4271,7 +4277,7 @@
       </c>
       <c r="H4" s="49">
         <f>$B$6</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I4" s="49">
         <f>$B$7</f>
@@ -4288,7 +4294,7 @@
       <c r="L4" s="49"/>
       <c r="M4" s="49">
         <f>$E$6</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N4" s="49">
         <f>$E$7</f>
@@ -4303,30 +4309,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G5" s="49">
         <v>2</v>
       </c>
       <c r="H5" s="49">
-        <f>ROUND($R5-MIN($R5,$M4)*($T5+50)/($S5+$T5+100),0)</f>
-        <v>0</v>
+        <f>ROUND($R5-MIN($R5,$M4)*($U5+50)/($T5+$U5+100),0)</f>
+        <v>200</v>
       </c>
       <c r="I5" s="49">
-        <f>MAX(IF(I$1,I4,I4-1),0)</f>
+        <f>MAX(IF(I$1,I4,ROUND(S5,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J5" s="50">
-        <f t="shared" ref="J5:J8" si="0">IF($B$7&gt;0,ROUND($B$8*I5/$B$7,0),0)</f>
+        <f>IF($B$7&gt;0,ROUND($B$8*I5/$B$7,0),0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="50">
-        <f t="shared" ref="K5:K8" si="1">IF($H5&gt;$M5,ROUNDDOWN(($H5-$M5)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J5/$B$8,0),0)</f>
+        <f>IF($H5&gt;$M5,ROUNDDOWN(($H5-$M5)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J5/$B$8,0),0)</f>
         <v>0</v>
       </c>
       <c r="L5" s="49"/>
       <c r="M5" s="49">
-        <f>ROUND($M4-MIN($R5,$M4)*($S5+50)/($S5+$T5+100),0)</f>
-        <v>0</v>
+        <f>ROUND($M4-MIN($R5,$M4)*($T5+50)/($T5+$U5+100),0)</f>
+        <v>200</v>
       </c>
       <c r="N5" s="49">
         <f>MAX(IF(N$1,N4,ROUND(N4-J4/20,0)),0)</f>
@@ -4337,87 +4343,95 @@
         <v>0</v>
       </c>
       <c r="P5" s="50">
-        <f t="shared" ref="P5:P8" si="2">IF($M5&gt;$H5,ROUNDDOWN(($M5-$H5)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*O5/$E$8,0),0)</f>
+        <f>IF($M5&gt;$H5,ROUNDDOWN(($M5-$H5)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*O5/$E$8,0),0)</f>
         <v>0</v>
       </c>
       <c r="R5" s="3">
         <f>ROUND($H4-MIN($N4,$H4)*($P4+20)/($P4+80),0)</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S5" s="3">
+        <f>I4-IF(N4&gt;0,(P4+20)/(P4+100),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
         <f>IF($R5&gt;$M4,ROUNDDOWN((R5-$M4)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J4/$B$8,0),0)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <f>IF($M4&gt;$R5,ROUNDDOWN(($M4-$R5)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*$O5/$E$8,0),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
       <c r="B6">
         <f>$A$4*40</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D6" t="s">
         <v>63</v>
       </c>
       <c r="E6">
         <f>$D$4*40</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G6" s="49">
         <v>3</v>
       </c>
       <c r="H6" s="54">
-        <f>ROUND($R6-MIN($R6,$M5)*($T6+50)/($S6+$T6+100),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="50">
-        <f t="shared" ref="I6:I9" si="3">MAX(IF(I$1,I5,I5-1),0)</f>
+        <f>ROUND($R6-MIN($R6,$M5)*($U6+50)/($T6+$U6+100),0)</f>
+        <v>100</v>
+      </c>
+      <c r="I6" s="55">
+        <f t="shared" ref="I6:I8" si="0">MAX(IF(I$1,I5,ROUND(S6,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J6" s="50">
-        <f t="shared" si="0"/>
+        <f>IF($B$7&gt;0,ROUND($B$8*I6/$B$7,0),0)</f>
         <v>0</v>
       </c>
       <c r="K6" s="50">
-        <f t="shared" si="1"/>
+        <f>IF($H6&gt;$M6,ROUNDDOWN(($H6-$M6)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J6/$B$8,0),0)</f>
         <v>0</v>
       </c>
       <c r="L6" s="49"/>
       <c r="M6" s="54">
-        <f>ROUND($M5-MIN($R6,$M5)*($S6+50)/($S6+$T6+100),0)</f>
-        <v>0</v>
+        <f>ROUND($M5-MIN($R6,$M5)*($T6+50)/($T6+$U6+100),0)</f>
+        <v>100</v>
       </c>
       <c r="N6" s="50">
-        <f t="shared" ref="N6:N9" si="4">MAX(IF(N$1,N5,ROUND(N5-J5/20,0)),0)</f>
+        <f>MAX(IF(N$1,N5,ROUND(N5-J5/20,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O6" s="50">
-        <f t="shared" ref="O6:O9" si="5">MAX(ROUND(O5-J5*0.5,0),0)</f>
+        <f>MAX(ROUND(O5-J5*0.5,0),0)</f>
         <v>0</v>
       </c>
       <c r="P6" s="50">
-        <f t="shared" si="2"/>
+        <f>IF($M6&gt;$H6,ROUNDDOWN(($M6-$H6)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*O6/$E$8,0),0)</f>
         <v>0</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R9" si="6">ROUND($H5-MIN($N5,$H5)*($P5+20)/($P5+80),0)</f>
-        <v>0</v>
+        <f>ROUND($H5-MIN($N5,$H5)*($P5+20)/($P5+80),0)</f>
+        <v>200</v>
       </c>
       <c r="S6" s="3">
+        <f>S5-IF(N5&gt;0,(P5+20)/(P5+100),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
         <f>IF(R6&gt;$M5,ROUNDDOWN((R6-$M5)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J5/$B$8,0),0)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="3">
-        <f t="shared" ref="T6:T9" si="7">IF($M5&gt;$R6,ROUNDDOWN(($M5-$R6)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*$O6/$E$8,0),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="3">
+        <f>IF($M5&gt;$R6,ROUNDDOWN(($M5-$R6)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*$O6/$E$8,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -4436,52 +4450,56 @@
         <v>4</v>
       </c>
       <c r="H7" s="54">
-        <f>ROUND($R7-MIN($R7,$M6)*($T7+50)/($S7+$T7+100),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="50">
-        <f t="shared" si="3"/>
+        <f>ROUND($R7-MIN($R7,$M6)*($U7+50)/($T7+$U7+100),0)</f>
+        <v>50</v>
+      </c>
+      <c r="I7" s="55">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="50">
-        <f t="shared" si="0"/>
+        <f>IF($B$7&gt;0,ROUND($B$8*I7/$B$7,0),0)</f>
         <v>0</v>
       </c>
       <c r="K7" s="50">
-        <f t="shared" si="1"/>
+        <f>IF($H7&gt;$M7,ROUNDDOWN(($H7-$M7)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J7/$B$8,0),0)</f>
         <v>0</v>
       </c>
       <c r="L7" s="49"/>
       <c r="M7" s="54">
-        <f>ROUND($M6-MIN($R7,$M6)*($S7+50)/($S7+$T7+100),0)</f>
-        <v>0</v>
+        <f>ROUND($M6-MIN($R7,$M6)*($T7+50)/($T7+$U7+100),0)</f>
+        <v>50</v>
       </c>
       <c r="N7" s="50">
-        <f t="shared" si="4"/>
+        <f>MAX(IF(N$1,N6,ROUND(N6-J6/20,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O7" s="50">
-        <f t="shared" si="5"/>
+        <f>MAX(ROUND(O6-J6*0.5,0),0)</f>
         <v>0</v>
       </c>
       <c r="P7" s="50">
-        <f t="shared" si="2"/>
+        <f>IF($M7&gt;$H7,ROUNDDOWN(($M7-$H7)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*O7/$E$8,0),0)</f>
         <v>0</v>
       </c>
       <c r="R7" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>ROUND($H6-MIN($N6,$H6)*($P6+20)/($P6+80),0)</f>
+        <v>100</v>
       </c>
       <c r="S7" s="3">
+        <f t="shared" ref="S7:S9" si="1">S6-IF(N6&gt;0,(P6+20)/(P6+100),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
         <f>IF(R7&gt;$M6,ROUNDDOWN((R7-$M6)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J6/$B$8,0),0)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="3">
+        <f>IF($M6&gt;$R7,ROUNDDOWN(($M6-$R7)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*$O7/$E$8,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -4500,89 +4518,97 @@
         <v>5</v>
       </c>
       <c r="H8" s="54">
-        <f>ROUND($R8-MIN($R8,$M7)*($T8+50)/($S8+$T8+100),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="50">
-        <f t="shared" si="3"/>
+        <f>ROUND($R8-MIN($R8,$M7)*($U8+50)/($T8+$U8+100),0)</f>
+        <v>25</v>
+      </c>
+      <c r="I8" s="55">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="50">
-        <f t="shared" si="0"/>
+        <f>IF($B$7&gt;0,ROUND($B$8*I8/$B$7,0),0)</f>
         <v>0</v>
       </c>
       <c r="K8" s="50">
-        <f t="shared" si="1"/>
+        <f>IF($H8&gt;$M8,ROUNDDOWN(($H8-$M8)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J8/$B$8,0),0)</f>
         <v>0</v>
       </c>
       <c r="L8" s="49"/>
       <c r="M8" s="54">
-        <f>ROUND($M7-MIN($R8,$M7)*($S8+50)/($S8+$T8+100),0)</f>
-        <v>0</v>
+        <f>ROUND($M7-MIN($R8,$M7)*($T8+50)/($T8+$U8+100),0)</f>
+        <v>25</v>
       </c>
       <c r="N8" s="50">
-        <f t="shared" si="4"/>
+        <f>MAX(IF(N$1,N7,ROUND(N7-J7/20,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O8" s="50">
-        <f t="shared" si="5"/>
+        <f>MAX(ROUND(O7-J7*0.5,0),0)</f>
         <v>0</v>
       </c>
       <c r="P8" s="50">
-        <f t="shared" si="2"/>
+        <f>IF($M8&gt;$H8,ROUNDDOWN(($M8-$H8)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*O8/$E$8,0),0)</f>
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>ROUND($H7-MIN($N7,$H7)*($P7+20)/($P7+80),0)</f>
+        <v>50</v>
       </c>
       <c r="S8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <f>IF(R8&gt;$M7,ROUNDDOWN((R8-$M7)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J7/$B$8,0),0)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="3">
+        <f>IF($M7&gt;$R8,ROUNDDOWN(($M7-$R8)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*$O8/$E$8,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G9" s="49" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="52">
-        <f>ROUND($R9-MIN($R9,$M8)*($T9+50)/($S9+$T9+100),0)</f>
-        <v>0</v>
+        <f>ROUND($R9-MIN($R9,$M8)*($U9+50)/($T9+$U9+100),0)</f>
+        <v>13</v>
       </c>
       <c r="I9" s="52">
-        <f t="shared" si="3"/>
+        <f>MAX(IF(I$1,I8,ROUND(S9,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="52">
-        <f>ROUND($M8-MIN($R9,$M8)*($S9+50)/($S9+$T9+100),0)</f>
-        <v>0</v>
+        <f>ROUND($M8-MIN($R9,$M8)*($T9+50)/($T9+$U9+100),0)</f>
+        <v>13</v>
       </c>
       <c r="N9" s="52">
-        <f t="shared" si="4"/>
+        <f>MAX(IF(N$1,N8,ROUND(N8-J8/20,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O9" s="52">
-        <f t="shared" si="5"/>
+        <f>MAX(ROUND(O8-J8*0.5,0),0)</f>
         <v>0</v>
       </c>
       <c r="P9" s="49"/>
       <c r="R9" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>ROUND($H8-MIN($N8,$H8)*($P8+20)/($P8+80),0)</f>
+        <v>25</v>
       </c>
       <c r="S9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <f>IF(R9&gt;$M8,ROUNDDOWN((R9-$M8)/100,0),0)+IF($B$4&gt;0,ROUND(ROUNDDOWN($B$4/2,0)*J8/$B$8,0),0)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="3">
-        <f t="shared" si="7"/>
+      <c r="U9" s="3">
+        <f>IF($M8&gt;$R9,ROUNDDOWN(($M8-$R9)/100,0),0)+IF($E$4&gt;0,ROUND(ROUNDDOWN($E$4/2,0)*$O9/$E$8,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4592,7 +4618,7 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:P2"/>
-    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
